--- a/d_up_loads/细则自评_new.xlsx
+++ b/d_up_loads/细则自评_new.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1415">
   <si>
     <t>等级</t>
   </si>
@@ -2712,18 +2712,12 @@
     <t>manage_2_f09ec45d260a7fca5aab0558b5d2548f</t>
   </si>
   <si>
-    <t>应保证所有与外部系统的连接均得到授权和批</t>
+    <t>应保证所有与外部系统的连接均得到授权和批准</t>
   </si>
   <si>
     <t>manage_2_3e2eef05a784fc9001173922dea56e27</t>
   </si>
   <si>
-    <t>准</t>
-  </si>
-  <si>
-    <t>manage_2_e9e5a290464d0294cacc7ca8bcc2053b</t>
-  </si>
-  <si>
     <t>manage_2_1ef6036e9d9b07e287a79750e6a5748b</t>
   </si>
   <si>
@@ -3457,9 +3451,6 @@
   </si>
   <si>
     <t>manage_3_366952a4034149cf5580d8c46ba00ff8</t>
-  </si>
-  <si>
-    <t>应保证所有与外部系统的连接均得到授权和批准</t>
   </si>
   <si>
     <t>manage_3_7d7e295174d1f7a3d5e3bf8bc4d73942</t>
@@ -4293,12 +4284,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -4311,16 +4308,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4337,13 +4334,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -4369,6 +4366,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -4507,13 +4505,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -4603,7 +4595,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4612,10 +4604,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -4870,13 +4862,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -5180,7 +5166,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -5189,10 +5175,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -12180,7 +12166,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E480"/>
+  <dimension ref="A1:E479"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -12189,8 +12175,8 @@
     <col min="1" max="1" width="8.85156" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.85156" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.85156" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="5" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="5" customWidth="1"/>
+    <col min="4" max="4" width="80.2031" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.2344" style="5" customWidth="1"/>
     <col min="6" max="256" width="8.85156" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14425,13 +14411,13 @@
         <v>727</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D132" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="E132" t="s" s="2">
         <v>901</v>
-      </c>
-      <c r="E132" t="s" s="2">
-        <v>902</v>
       </c>
     </row>
     <row r="133" ht="13.65" customHeight="1">
@@ -14445,10 +14431,10 @@
         <v>753</v>
       </c>
       <c r="D133" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E133" t="s" s="2">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="134" ht="13.65" customHeight="1">
@@ -14462,7 +14448,7 @@
         <v>753</v>
       </c>
       <c r="D134" t="s" s="2">
-        <v>756</v>
+        <v>903</v>
       </c>
       <c r="E134" t="s" s="2">
         <v>904</v>
@@ -14527,13 +14513,13 @@
         <v>727</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="D138" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="E138" t="s" s="2">
         <v>911</v>
-      </c>
-      <c r="E138" t="s" s="2">
-        <v>912</v>
       </c>
     </row>
     <row r="139" ht="13.65" customHeight="1">
@@ -14547,7 +14533,7 @@
         <v>760</v>
       </c>
       <c r="D139" t="s" s="2">
-        <v>761</v>
+        <v>912</v>
       </c>
       <c r="E139" t="s" s="2">
         <v>913</v>
@@ -14578,13 +14564,13 @@
         <v>727</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>760</v>
+        <v>916</v>
       </c>
       <c r="D141" t="s" s="2">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E141" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="142" ht="13.65" customHeight="1">
@@ -14595,13 +14581,13 @@
         <v>727</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D142" t="s" s="2">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E142" t="s" s="2">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="143" ht="13.65" customHeight="1">
@@ -14612,7 +14598,7 @@
         <v>727</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>922</v>
@@ -14629,13 +14615,13 @@
         <v>727</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>921</v>
+        <v>763</v>
       </c>
       <c r="D144" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="E144" t="s" s="2">
         <v>924</v>
-      </c>
-      <c r="E144" t="s" s="2">
-        <v>925</v>
       </c>
     </row>
     <row r="145" ht="13.65" customHeight="1">
@@ -14649,10 +14635,10 @@
         <v>763</v>
       </c>
       <c r="D145" t="s" s="2">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E145" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="146" ht="13.65" customHeight="1">
@@ -14666,7 +14652,7 @@
         <v>763</v>
       </c>
       <c r="D146" t="s" s="2">
-        <v>766</v>
+        <v>926</v>
       </c>
       <c r="E146" t="s" s="2">
         <v>927</v>
@@ -14680,13 +14666,13 @@
         <v>727</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D147" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="E147" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="E147" t="s" s="2">
-        <v>929</v>
       </c>
     </row>
     <row r="148" ht="13.65" customHeight="1">
@@ -14700,7 +14686,7 @@
         <v>768</v>
       </c>
       <c r="D148" t="s" s="2">
-        <v>769</v>
+        <v>929</v>
       </c>
       <c r="E148" t="s" s="2">
         <v>930</v>
@@ -14748,13 +14734,13 @@
         <v>727</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>768</v>
+        <v>935</v>
       </c>
       <c r="D151" t="s" s="2">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E151" t="s" s="2">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="152" ht="13.65" customHeight="1">
@@ -14765,7 +14751,7 @@
         <v>727</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D152" t="s" s="2">
         <v>938</v>
@@ -14776,19 +14762,19 @@
     </row>
     <row r="153" ht="13.65" customHeight="1">
       <c r="A153" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>727</v>
+        <v>636</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>937</v>
+        <v>637</v>
       </c>
       <c r="D153" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="E153" t="s" s="2">
         <v>940</v>
-      </c>
-      <c r="E153" t="s" s="2">
-        <v>941</v>
       </c>
     </row>
     <row r="154" ht="13.65" customHeight="1">
@@ -14802,7 +14788,7 @@
         <v>637</v>
       </c>
       <c r="D154" t="s" s="2">
-        <v>773</v>
+        <v>941</v>
       </c>
       <c r="E154" t="s" s="2">
         <v>942</v>
@@ -14850,13 +14836,13 @@
         <v>636</v>
       </c>
       <c r="C157" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D157" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="E157" t="s" s="2">
         <v>947</v>
-      </c>
-      <c r="E157" t="s" s="2">
-        <v>948</v>
       </c>
     </row>
     <row r="158" ht="13.65" customHeight="1">
@@ -14870,7 +14856,7 @@
         <v>640</v>
       </c>
       <c r="D158" t="s" s="2">
-        <v>779</v>
+        <v>948</v>
       </c>
       <c r="E158" t="s" s="2">
         <v>949</v>
@@ -14935,7 +14921,7 @@
         <v>636</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>640</v>
+        <v>784</v>
       </c>
       <c r="D162" t="s" s="2">
         <v>956</v>
@@ -14966,10 +14952,10 @@
         <v>3</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>784</v>
+        <v>646</v>
       </c>
       <c r="D164" t="s" s="2">
         <v>960</v>
@@ -14989,10 +14975,10 @@
         <v>646</v>
       </c>
       <c r="D165" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="E165" t="s" s="2">
         <v>962</v>
-      </c>
-      <c r="E165" t="s" s="2">
-        <v>963</v>
       </c>
     </row>
     <row r="166" ht="13.65" customHeight="1">
@@ -15006,7 +14992,7 @@
         <v>646</v>
       </c>
       <c r="D166" t="s" s="2">
-        <v>647</v>
+        <v>963</v>
       </c>
       <c r="E166" t="s" s="2">
         <v>964</v>
@@ -15037,13 +15023,13 @@
         <v>645</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D168" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="E168" t="s" s="2">
         <v>967</v>
-      </c>
-      <c r="E168" t="s" s="2">
-        <v>968</v>
       </c>
     </row>
     <row r="169" ht="13.65" customHeight="1">
@@ -15057,7 +15043,7 @@
         <v>649</v>
       </c>
       <c r="D169" t="s" s="2">
-        <v>650</v>
+        <v>968</v>
       </c>
       <c r="E169" t="s" s="2">
         <v>969</v>
@@ -15088,7 +15074,7 @@
         <v>645</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>972</v>
@@ -15156,7 +15142,7 @@
         <v>645</v>
       </c>
       <c r="C175" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D175" t="s" s="2">
         <v>980</v>
@@ -15241,13 +15227,13 @@
         <v>645</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>655</v>
+        <v>800</v>
       </c>
       <c r="D180" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="E180" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="E180" t="s" s="2">
-        <v>991</v>
       </c>
     </row>
     <row r="181" ht="13.65" customHeight="1">
@@ -15261,7 +15247,7 @@
         <v>800</v>
       </c>
       <c r="D181" t="s" s="2">
-        <v>801</v>
+        <v>991</v>
       </c>
       <c r="E181" t="s" s="2">
         <v>992</v>
@@ -15306,16 +15292,16 @@
         <v>3</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="C184" t="s" s="2">
-        <v>800</v>
+        <v>659</v>
       </c>
       <c r="D184" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="E184" t="s" s="2">
         <v>997</v>
-      </c>
-      <c r="E184" t="s" s="2">
-        <v>998</v>
       </c>
     </row>
     <row r="185" ht="13.65" customHeight="1">
@@ -15329,7 +15315,7 @@
         <v>659</v>
       </c>
       <c r="D185" t="s" s="2">
-        <v>660</v>
+        <v>998</v>
       </c>
       <c r="E185" t="s" s="2">
         <v>999</v>
@@ -15377,7 +15363,7 @@
         <v>658</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>1004</v>
@@ -15397,10 +15383,10 @@
         <v>664</v>
       </c>
       <c r="D189" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="E189" t="s" s="2">
         <v>1006</v>
-      </c>
-      <c r="E189" t="s" s="2">
-        <v>1007</v>
       </c>
     </row>
     <row r="190" ht="13.65" customHeight="1">
@@ -15414,7 +15400,7 @@
         <v>664</v>
       </c>
       <c r="D190" t="s" s="2">
-        <v>667</v>
+        <v>1007</v>
       </c>
       <c r="E190" t="s" s="2">
         <v>1008</v>
@@ -15428,13 +15414,13 @@
         <v>658</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>664</v>
+        <v>813</v>
       </c>
       <c r="D191" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="E191" t="s" s="2">
         <v>1009</v>
-      </c>
-      <c r="E191" t="s" s="2">
-        <v>1010</v>
       </c>
     </row>
     <row r="192" ht="13.65" customHeight="1">
@@ -15448,7 +15434,7 @@
         <v>813</v>
       </c>
       <c r="D192" t="s" s="2">
-        <v>814</v>
+        <v>1010</v>
       </c>
       <c r="E192" t="s" s="2">
         <v>1011</v>
@@ -15479,13 +15465,13 @@
         <v>658</v>
       </c>
       <c r="C194" t="s" s="2">
-        <v>813</v>
+        <v>669</v>
       </c>
       <c r="D194" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="E194" t="s" s="2">
         <v>1014</v>
-      </c>
-      <c r="E194" t="s" s="2">
-        <v>1015</v>
       </c>
     </row>
     <row r="195" ht="13.65" customHeight="1">
@@ -15499,7 +15485,7 @@
         <v>669</v>
       </c>
       <c r="D195" t="s" s="2">
-        <v>816</v>
+        <v>1015</v>
       </c>
       <c r="E195" t="s" s="2">
         <v>1016</v>
@@ -15547,7 +15533,7 @@
         <v>658</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D198" t="s" s="2">
         <v>1021</v>
@@ -15578,16 +15564,16 @@
         <v>3</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="C200" t="s" s="2">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D200" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="E200" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="E200" t="s" s="2">
-        <v>1026</v>
       </c>
     </row>
     <row r="201" ht="13.65" customHeight="1">
@@ -15601,10 +15587,10 @@
         <v>678</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E201" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="202" ht="13.65" customHeight="1">
@@ -15618,10 +15604,10 @@
         <v>678</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E202" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="203" ht="13.65" customHeight="1">
@@ -15635,7 +15621,7 @@
         <v>678</v>
       </c>
       <c r="D203" t="s" s="2">
-        <v>683</v>
+        <v>1028</v>
       </c>
       <c r="E203" t="s" s="2">
         <v>1029</v>
@@ -15649,13 +15635,13 @@
         <v>677</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D204" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="E204" t="s" s="2">
         <v>1030</v>
-      </c>
-      <c r="E204" t="s" s="2">
-        <v>1031</v>
       </c>
     </row>
     <row r="205" ht="13.65" customHeight="1">
@@ -15669,7 +15655,7 @@
         <v>685</v>
       </c>
       <c r="D205" t="s" s="2">
-        <v>686</v>
+        <v>1031</v>
       </c>
       <c r="E205" t="s" s="2">
         <v>1032</v>
@@ -15751,13 +15737,13 @@
         <v>677</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D210" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="E210" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="E210" t="s" s="2">
-        <v>1042</v>
       </c>
     </row>
     <row r="211" ht="13.65" customHeight="1">
@@ -15771,10 +15757,10 @@
         <v>692</v>
       </c>
       <c r="D211" t="s" s="2">
-        <v>693</v>
+        <v>835</v>
       </c>
       <c r="E211" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="212" ht="13.65" customHeight="1">
@@ -15788,7 +15774,7 @@
         <v>692</v>
       </c>
       <c r="D212" t="s" s="2">
-        <v>835</v>
+        <v>1043</v>
       </c>
       <c r="E212" t="s" s="2">
         <v>1044</v>
@@ -15819,7 +15805,7 @@
         <v>677</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D214" t="s" s="2">
         <v>1047</v>
@@ -15839,10 +15825,10 @@
         <v>695</v>
       </c>
       <c r="D215" t="s" s="2">
+        <v>840</v>
+      </c>
+      <c r="E215" t="s" s="2">
         <v>1049</v>
-      </c>
-      <c r="E215" t="s" s="2">
-        <v>1050</v>
       </c>
     </row>
     <row r="216" ht="13.65" customHeight="1">
@@ -15856,10 +15842,10 @@
         <v>695</v>
       </c>
       <c r="D216" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E216" t="s" s="2">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="217" ht="13.65" customHeight="1">
@@ -15873,7 +15859,7 @@
         <v>695</v>
       </c>
       <c r="D217" t="s" s="2">
-        <v>842</v>
+        <v>1051</v>
       </c>
       <c r="E217" t="s" s="2">
         <v>1052</v>
@@ -15904,13 +15890,13 @@
         <v>677</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="D219" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="E219" t="s" s="2">
         <v>1055</v>
-      </c>
-      <c r="E219" t="s" s="2">
-        <v>1056</v>
       </c>
     </row>
     <row r="220" ht="13.65" customHeight="1">
@@ -15924,10 +15910,10 @@
         <v>700</v>
       </c>
       <c r="D220" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E220" t="s" s="2">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="221" ht="13.65" customHeight="1">
@@ -15941,10 +15927,10 @@
         <v>700</v>
       </c>
       <c r="D221" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E221" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="222" ht="13.65" customHeight="1">
@@ -15958,10 +15944,10 @@
         <v>700</v>
       </c>
       <c r="D222" t="s" s="2">
-        <v>705</v>
+        <v>847</v>
       </c>
       <c r="E222" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="223" ht="13.65" customHeight="1">
@@ -15972,13 +15958,13 @@
         <v>677</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="D223" t="s" s="2">
-        <v>847</v>
+        <v>708</v>
       </c>
       <c r="E223" t="s" s="2">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="224" ht="13.65" customHeight="1">
@@ -15992,7 +15978,7 @@
         <v>707</v>
       </c>
       <c r="D224" t="s" s="2">
-        <v>708</v>
+        <v>1060</v>
       </c>
       <c r="E224" t="s" s="2">
         <v>1061</v>
@@ -16023,7 +16009,7 @@
         <v>677</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D226" t="s" s="2">
         <v>1064</v>
@@ -16043,10 +16029,10 @@
         <v>710</v>
       </c>
       <c r="D227" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="E227" t="s" s="2">
         <v>1066</v>
-      </c>
-      <c r="E227" t="s" s="2">
-        <v>1067</v>
       </c>
     </row>
     <row r="228" ht="13.65" customHeight="1">
@@ -16060,10 +16046,10 @@
         <v>710</v>
       </c>
       <c r="D228" t="s" s="2">
-        <v>713</v>
+        <v>855</v>
       </c>
       <c r="E228" t="s" s="2">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="229" ht="13.65" customHeight="1">
@@ -16077,7 +16063,7 @@
         <v>710</v>
       </c>
       <c r="D229" t="s" s="2">
-        <v>855</v>
+        <v>1068</v>
       </c>
       <c r="E229" t="s" s="2">
         <v>1069</v>
@@ -16108,7 +16094,7 @@
         <v>677</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="D231" t="s" s="2">
         <v>1072</v>
@@ -16128,10 +16114,10 @@
         <v>715</v>
       </c>
       <c r="D232" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="E232" t="s" s="2">
         <v>1074</v>
-      </c>
-      <c r="E232" t="s" s="2">
-        <v>1075</v>
       </c>
     </row>
     <row r="233" ht="13.65" customHeight="1">
@@ -16145,10 +16131,10 @@
         <v>715</v>
       </c>
       <c r="D233" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E233" t="s" s="2">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="234" ht="13.65" customHeight="1">
@@ -16162,7 +16148,7 @@
         <v>715</v>
       </c>
       <c r="D234" t="s" s="2">
-        <v>720</v>
+        <v>1076</v>
       </c>
       <c r="E234" t="s" s="2">
         <v>1077</v>
@@ -16193,13 +16179,13 @@
         <v>677</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>715</v>
+        <v>1080</v>
       </c>
       <c r="D236" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E236" t="s" s="2">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="237" ht="13.65" customHeight="1">
@@ -16210,7 +16196,7 @@
         <v>677</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D237" t="s" s="2">
         <v>1083</v>
@@ -16227,7 +16213,7 @@
         <v>677</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D238" t="s" s="2">
         <v>1085</v>
@@ -16244,13 +16230,13 @@
         <v>677</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="D239" t="s" s="2">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="E239" t="s" s="2">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="240" ht="13.65" customHeight="1">
@@ -16261,7 +16247,7 @@
         <v>677</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D240" t="s" s="2">
         <v>1090</v>
@@ -16278,7 +16264,7 @@
         <v>677</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D241" t="s" s="2">
         <v>1092</v>
@@ -16295,7 +16281,7 @@
         <v>677</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D242" t="s" s="2">
         <v>1094</v>
@@ -16312,13 +16298,13 @@
         <v>677</v>
       </c>
       <c r="C243" t="s" s="2">
-        <v>1089</v>
+        <v>722</v>
       </c>
       <c r="D243" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="E243" t="s" s="2">
         <v>1096</v>
-      </c>
-      <c r="E243" t="s" s="2">
-        <v>1097</v>
       </c>
     </row>
     <row r="244" ht="13.65" customHeight="1">
@@ -16332,10 +16318,10 @@
         <v>722</v>
       </c>
       <c r="D244" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E244" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="245" ht="13.65" customHeight="1">
@@ -16349,10 +16335,10 @@
         <v>722</v>
       </c>
       <c r="D245" t="s" s="2">
-        <v>725</v>
+        <v>863</v>
       </c>
       <c r="E245" t="s" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="246" ht="13.65" customHeight="1">
@@ -16360,16 +16346,16 @@
         <v>3</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>677</v>
+        <v>727</v>
       </c>
       <c r="C246" t="s" s="2">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="D246" t="s" s="2">
-        <v>863</v>
+        <v>729</v>
       </c>
       <c r="E246" t="s" s="2">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="247" ht="13.65" customHeight="1">
@@ -16383,7 +16369,7 @@
         <v>728</v>
       </c>
       <c r="D247" t="s" s="2">
-        <v>729</v>
+        <v>1100</v>
       </c>
       <c r="E247" t="s" s="2">
         <v>1101</v>
@@ -16400,10 +16386,10 @@
         <v>728</v>
       </c>
       <c r="D248" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="E248" t="s" s="2">
         <v>1102</v>
-      </c>
-      <c r="E248" t="s" s="2">
-        <v>1103</v>
       </c>
     </row>
     <row r="249" ht="13.65" customHeight="1">
@@ -16417,7 +16403,7 @@
         <v>728</v>
       </c>
       <c r="D249" t="s" s="2">
-        <v>733</v>
+        <v>1103</v>
       </c>
       <c r="E249" t="s" s="2">
         <v>1104</v>
@@ -16431,13 +16417,13 @@
         <v>727</v>
       </c>
       <c r="C250" t="s" s="2">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="D250" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="E250" t="s" s="2">
         <v>1105</v>
-      </c>
-      <c r="E250" t="s" s="2">
-        <v>1106</v>
       </c>
     </row>
     <row r="251" ht="13.65" customHeight="1">
@@ -16451,7 +16437,7 @@
         <v>735</v>
       </c>
       <c r="D251" t="s" s="2">
-        <v>736</v>
+        <v>1106</v>
       </c>
       <c r="E251" t="s" s="2">
         <v>1107</v>
@@ -16516,7 +16502,7 @@
         <v>727</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D255" t="s" s="2">
         <v>1114</v>
@@ -16536,10 +16522,10 @@
         <v>738</v>
       </c>
       <c r="D256" t="s" s="2">
+        <v>877</v>
+      </c>
+      <c r="E256" t="s" s="2">
         <v>1116</v>
-      </c>
-      <c r="E256" t="s" s="2">
-        <v>1117</v>
       </c>
     </row>
     <row r="257" ht="13.65" customHeight="1">
@@ -16553,7 +16539,7 @@
         <v>738</v>
       </c>
       <c r="D257" t="s" s="2">
-        <v>877</v>
+        <v>1117</v>
       </c>
       <c r="E257" t="s" s="2">
         <v>1118</v>
@@ -16618,13 +16604,13 @@
         <v>727</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="D261" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="E261" t="s" s="2">
         <v>1125</v>
-      </c>
-      <c r="E261" t="s" s="2">
-        <v>1126</v>
       </c>
     </row>
     <row r="262" ht="13.65" customHeight="1">
@@ -16638,10 +16624,10 @@
         <v>743</v>
       </c>
       <c r="D262" t="s" s="2">
-        <v>884</v>
+        <v>746</v>
       </c>
       <c r="E262" t="s" s="2">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="263" ht="13.65" customHeight="1">
@@ -16655,7 +16641,7 @@
         <v>743</v>
       </c>
       <c r="D263" t="s" s="2">
-        <v>746</v>
+        <v>1127</v>
       </c>
       <c r="E263" t="s" s="2">
         <v>1128</v>
@@ -16689,10 +16675,10 @@
         <v>743</v>
       </c>
       <c r="D265" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="E265" t="s" s="2">
         <v>1131</v>
-      </c>
-      <c r="E265" t="s" s="2">
-        <v>1132</v>
       </c>
     </row>
     <row r="266" ht="13.65" customHeight="1">
@@ -16703,13 +16689,13 @@
         <v>727</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>743</v>
+        <v>1132</v>
       </c>
       <c r="D266" t="s" s="2">
-        <v>889</v>
+        <v>1133</v>
       </c>
       <c r="E266" t="s" s="2">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="267" ht="13.65" customHeight="1">
@@ -16720,7 +16706,7 @@
         <v>727</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D267" t="s" s="2">
         <v>1135</v>
@@ -16737,7 +16723,7 @@
         <v>727</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D268" t="s" s="2">
         <v>1137</v>
@@ -16754,13 +16740,13 @@
         <v>727</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>1134</v>
+        <v>748</v>
       </c>
       <c r="D269" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="E269" t="s" s="2">
         <v>1139</v>
-      </c>
-      <c r="E269" t="s" s="2">
-        <v>1140</v>
       </c>
     </row>
     <row r="270" ht="13.65" customHeight="1">
@@ -16774,10 +16760,10 @@
         <v>748</v>
       </c>
       <c r="D270" t="s" s="2">
-        <v>749</v>
+        <v>892</v>
       </c>
       <c r="E270" t="s" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="271" ht="13.65" customHeight="1">
@@ -16791,7 +16777,7 @@
         <v>748</v>
       </c>
       <c r="D271" t="s" s="2">
-        <v>892</v>
+        <v>1141</v>
       </c>
       <c r="E271" t="s" s="2">
         <v>1142</v>
@@ -16808,10 +16794,10 @@
         <v>748</v>
       </c>
       <c r="D272" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="E272" t="s" s="2">
         <v>1143</v>
-      </c>
-      <c r="E272" t="s" s="2">
-        <v>1144</v>
       </c>
     </row>
     <row r="273" ht="13.65" customHeight="1">
@@ -16825,7 +16811,7 @@
         <v>748</v>
       </c>
       <c r="D273" t="s" s="2">
-        <v>751</v>
+        <v>1144</v>
       </c>
       <c r="E273" t="s" s="2">
         <v>1145</v>
@@ -16842,10 +16828,10 @@
         <v>748</v>
       </c>
       <c r="D274" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="E274" t="s" s="2">
         <v>1146</v>
-      </c>
-      <c r="E274" t="s" s="2">
-        <v>1147</v>
       </c>
     </row>
     <row r="275" ht="13.65" customHeight="1">
@@ -16859,10 +16845,10 @@
         <v>748</v>
       </c>
       <c r="D275" t="s" s="2">
+        <v>1147</v>
+      </c>
+      <c r="E275" t="s" s="2">
         <v>1148</v>
-      </c>
-      <c r="E275" t="s" s="2">
-        <v>1149</v>
       </c>
     </row>
     <row r="276" ht="13.65" customHeight="1">
@@ -16876,10 +16862,10 @@
         <v>748</v>
       </c>
       <c r="D276" t="s" s="2">
+        <v>1149</v>
+      </c>
+      <c r="E276" t="s" s="2">
         <v>1150</v>
-      </c>
-      <c r="E276" t="s" s="2">
-        <v>1151</v>
       </c>
     </row>
     <row r="277" ht="13.65" customHeight="1">
@@ -16890,13 +16876,13 @@
         <v>727</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D277" t="s" s="2">
-        <v>1152</v>
+        <v>754</v>
       </c>
       <c r="E277" t="s" s="2">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="278" ht="13.65" customHeight="1">
@@ -16910,10 +16896,10 @@
         <v>753</v>
       </c>
       <c r="D278" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E278" t="s" s="2">
-        <v>1154</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="279" ht="13.65" customHeight="1">
@@ -16927,10 +16913,10 @@
         <v>753</v>
       </c>
       <c r="D279" t="s" s="2">
-        <v>756</v>
+        <v>903</v>
       </c>
       <c r="E279" t="s" s="2">
-        <v>1155</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="280" ht="13.65" customHeight="1">
@@ -16947,7 +16933,7 @@
         <v>905</v>
       </c>
       <c r="E280" t="s" s="2">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="281" ht="13.65" customHeight="1">
@@ -16961,10 +16947,10 @@
         <v>753</v>
       </c>
       <c r="D281" t="s" s="2">
-        <v>907</v>
+        <v>1155</v>
       </c>
       <c r="E281" t="s" s="2">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="282" ht="13.65" customHeight="1">
@@ -16978,10 +16964,10 @@
         <v>753</v>
       </c>
       <c r="D282" t="s" s="2">
-        <v>1158</v>
+        <v>907</v>
       </c>
       <c r="E282" t="s" s="2">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="283" ht="13.65" customHeight="1">
@@ -16998,7 +16984,7 @@
         <v>909</v>
       </c>
       <c r="E283" t="s" s="2">
-        <v>1160</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="284" ht="13.65" customHeight="1">
@@ -17009,13 +16995,13 @@
         <v>727</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="D284" t="s" s="2">
-        <v>911</v>
+        <v>761</v>
       </c>
       <c r="E284" t="s" s="2">
-        <v>1161</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="285" ht="13.65" customHeight="1">
@@ -17029,10 +17015,10 @@
         <v>760</v>
       </c>
       <c r="D285" t="s" s="2">
-        <v>761</v>
+        <v>912</v>
       </c>
       <c r="E285" t="s" s="2">
-        <v>1162</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="286" ht="13.65" customHeight="1">
@@ -17049,7 +17035,7 @@
         <v>914</v>
       </c>
       <c r="E286" t="s" s="2">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="287" ht="13.65" customHeight="1">
@@ -17063,10 +17049,10 @@
         <v>760</v>
       </c>
       <c r="D287" t="s" s="2">
-        <v>916</v>
+        <v>1162</v>
       </c>
       <c r="E287" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="288" ht="13.65" customHeight="1">
@@ -17077,13 +17063,13 @@
         <v>727</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>760</v>
+        <v>916</v>
       </c>
       <c r="D288" t="s" s="2">
+        <v>1164</v>
+      </c>
+      <c r="E288" t="s" s="2">
         <v>1165</v>
-      </c>
-      <c r="E288" t="s" s="2">
-        <v>1166</v>
       </c>
     </row>
     <row r="289" ht="13.65" customHeight="1">
@@ -17094,13 +17080,13 @@
         <v>727</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D289" t="s" s="2">
-        <v>1167</v>
+        <v>920</v>
       </c>
       <c r="E289" t="s" s="2">
-        <v>1168</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="290" ht="13.65" customHeight="1">
@@ -17111,13 +17097,13 @@
         <v>727</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D290" t="s" s="2">
-        <v>922</v>
+        <v>1167</v>
       </c>
       <c r="E290" t="s" s="2">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="291" ht="13.65" customHeight="1">
@@ -17128,13 +17114,13 @@
         <v>727</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D291" t="s" s="2">
+        <v>1169</v>
+      </c>
+      <c r="E291" t="s" s="2">
         <v>1170</v>
-      </c>
-      <c r="E291" t="s" s="2">
-        <v>1171</v>
       </c>
     </row>
     <row r="292" ht="13.65" customHeight="1">
@@ -17145,13 +17131,13 @@
         <v>727</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D292" t="s" s="2">
+        <v>1171</v>
+      </c>
+      <c r="E292" t="s" s="2">
         <v>1172</v>
-      </c>
-      <c r="E292" t="s" s="2">
-        <v>1173</v>
       </c>
     </row>
     <row r="293" ht="13.65" customHeight="1">
@@ -17162,13 +17148,13 @@
         <v>727</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>921</v>
+        <v>763</v>
       </c>
       <c r="D293" t="s" s="2">
-        <v>1174</v>
+        <v>764</v>
       </c>
       <c r="E293" t="s" s="2">
-        <v>1175</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="294" ht="13.65" customHeight="1">
@@ -17182,10 +17168,10 @@
         <v>763</v>
       </c>
       <c r="D294" t="s" s="2">
-        <v>764</v>
+        <v>1174</v>
       </c>
       <c r="E294" t="s" s="2">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="295" ht="13.65" customHeight="1">
@@ -17199,10 +17185,10 @@
         <v>763</v>
       </c>
       <c r="D295" t="s" s="2">
-        <v>1177</v>
+        <v>926</v>
       </c>
       <c r="E295" t="s" s="2">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="296" ht="13.65" customHeight="1">
@@ -17216,10 +17202,10 @@
         <v>763</v>
       </c>
       <c r="D296" t="s" s="2">
-        <v>928</v>
+        <v>1177</v>
       </c>
       <c r="E296" t="s" s="2">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="297" ht="13.65" customHeight="1">
@@ -17233,10 +17219,10 @@
         <v>763</v>
       </c>
       <c r="D297" t="s" s="2">
+        <v>1179</v>
+      </c>
+      <c r="E297" t="s" s="2">
         <v>1180</v>
-      </c>
-      <c r="E297" t="s" s="2">
-        <v>1181</v>
       </c>
     </row>
     <row r="298" ht="13.65" customHeight="1">
@@ -17247,13 +17233,13 @@
         <v>727</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D298" t="s" s="2">
-        <v>1182</v>
+        <v>769</v>
       </c>
       <c r="E298" t="s" s="2">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="299" ht="13.65" customHeight="1">
@@ -17267,10 +17253,10 @@
         <v>768</v>
       </c>
       <c r="D299" t="s" s="2">
-        <v>769</v>
+        <v>1182</v>
       </c>
       <c r="E299" t="s" s="2">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="300" ht="13.65" customHeight="1">
@@ -17284,10 +17270,10 @@
         <v>768</v>
       </c>
       <c r="D300" t="s" s="2">
-        <v>1185</v>
+        <v>931</v>
       </c>
       <c r="E300" t="s" s="2">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="301" ht="13.65" customHeight="1">
@@ -17301,10 +17287,10 @@
         <v>768</v>
       </c>
       <c r="D301" t="s" s="2">
-        <v>933</v>
+        <v>1185</v>
       </c>
       <c r="E301" t="s" s="2">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="302" ht="13.65" customHeight="1">
@@ -17318,10 +17304,10 @@
         <v>768</v>
       </c>
       <c r="D302" t="s" s="2">
+        <v>1187</v>
+      </c>
+      <c r="E302" t="s" s="2">
         <v>1188</v>
-      </c>
-      <c r="E302" t="s" s="2">
-        <v>1189</v>
       </c>
     </row>
     <row r="303" ht="13.65" customHeight="1">
@@ -17335,10 +17321,10 @@
         <v>768</v>
       </c>
       <c r="D303" t="s" s="2">
+        <v>1189</v>
+      </c>
+      <c r="E303" t="s" s="2">
         <v>1190</v>
-      </c>
-      <c r="E303" t="s" s="2">
-        <v>1191</v>
       </c>
     </row>
     <row r="304" ht="13.65" customHeight="1">
@@ -17349,13 +17335,13 @@
         <v>727</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>768</v>
+        <v>935</v>
       </c>
       <c r="D304" t="s" s="2">
-        <v>1192</v>
+        <v>936</v>
       </c>
       <c r="E304" t="s" s="2">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="305" ht="13.65" customHeight="1">
@@ -17366,13 +17352,13 @@
         <v>727</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D305" t="s" s="2">
-        <v>938</v>
+        <v>1192</v>
       </c>
       <c r="E305" t="s" s="2">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="306" ht="13.65" customHeight="1">
@@ -17383,13 +17369,13 @@
         <v>727</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D306" t="s" s="2">
-        <v>1195</v>
+        <v>938</v>
       </c>
       <c r="E306" t="s" s="2">
-        <v>1196</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="307" ht="13.65" customHeight="1">
@@ -17400,13 +17386,13 @@
         <v>727</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D307" t="s" s="2">
-        <v>940</v>
+        <v>1195</v>
       </c>
       <c r="E307" t="s" s="2">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="308" ht="13.65" customHeight="1">
@@ -17417,30 +17403,30 @@
         <v>727</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D308" t="s" s="2">
+        <v>1197</v>
+      </c>
+      <c r="E308" t="s" s="2">
         <v>1198</v>
-      </c>
-      <c r="E308" t="s" s="2">
-        <v>1199</v>
       </c>
     </row>
     <row r="309" ht="13.65" customHeight="1">
       <c r="A309" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>727</v>
+        <v>636</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>937</v>
+        <v>637</v>
       </c>
       <c r="D309" t="s" s="2">
-        <v>1200</v>
+        <v>773</v>
       </c>
       <c r="E309" t="s" s="2">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="310" ht="13.65" customHeight="1">
@@ -17454,10 +17440,10 @@
         <v>637</v>
       </c>
       <c r="D310" t="s" s="2">
-        <v>773</v>
+        <v>941</v>
       </c>
       <c r="E310" t="s" s="2">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="311" ht="13.65" customHeight="1">
@@ -17474,7 +17460,7 @@
         <v>943</v>
       </c>
       <c r="E311" t="s" s="2">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="312" ht="13.65" customHeight="1">
@@ -17491,7 +17477,7 @@
         <v>945</v>
       </c>
       <c r="E312" t="s" s="2">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="313" ht="13.65" customHeight="1">
@@ -17502,13 +17488,13 @@
         <v>636</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D313" t="s" s="2">
-        <v>947</v>
+        <v>779</v>
       </c>
       <c r="E313" t="s" s="2">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="314" ht="13.65" customHeight="1">
@@ -17522,10 +17508,10 @@
         <v>640</v>
       </c>
       <c r="D314" t="s" s="2">
-        <v>779</v>
+        <v>948</v>
       </c>
       <c r="E314" t="s" s="2">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="315" ht="13.65" customHeight="1">
@@ -17542,7 +17528,7 @@
         <v>950</v>
       </c>
       <c r="E315" t="s" s="2">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="316" ht="13.65" customHeight="1">
@@ -17559,7 +17545,7 @@
         <v>952</v>
       </c>
       <c r="E316" t="s" s="2">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="317" ht="13.65" customHeight="1">
@@ -17576,7 +17562,7 @@
         <v>954</v>
       </c>
       <c r="E317" t="s" s="2">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="318" ht="13.65" customHeight="1">
@@ -17590,10 +17576,10 @@
         <v>640</v>
       </c>
       <c r="D318" t="s" s="2">
-        <v>956</v>
+        <v>1208</v>
       </c>
       <c r="E318" t="s" s="2">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="319" ht="13.65" customHeight="1">
@@ -17604,13 +17590,13 @@
         <v>636</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>640</v>
+        <v>784</v>
       </c>
       <c r="D319" t="s" s="2">
-        <v>1211</v>
+        <v>956</v>
       </c>
       <c r="E319" t="s" s="2">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="320" ht="13.65" customHeight="1">
@@ -17627,7 +17613,7 @@
         <v>958</v>
       </c>
       <c r="E320" t="s" s="2">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="321" ht="13.65" customHeight="1">
@@ -17641,10 +17627,10 @@
         <v>784</v>
       </c>
       <c r="D321" t="s" s="2">
-        <v>960</v>
+        <v>1212</v>
       </c>
       <c r="E321" t="s" s="2">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="322" ht="13.65" customHeight="1">
@@ -17658,10 +17644,10 @@
         <v>784</v>
       </c>
       <c r="D322" t="s" s="2">
+        <v>1214</v>
+      </c>
+      <c r="E322" t="s" s="2">
         <v>1215</v>
-      </c>
-      <c r="E322" t="s" s="2">
-        <v>1216</v>
       </c>
     </row>
     <row r="323" ht="13.65" customHeight="1">
@@ -17669,16 +17655,16 @@
         <v>4</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>784</v>
+        <v>646</v>
       </c>
       <c r="D323" t="s" s="2">
-        <v>1217</v>
+        <v>960</v>
       </c>
       <c r="E323" t="s" s="2">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="324" ht="13.65" customHeight="1">
@@ -17692,10 +17678,10 @@
         <v>646</v>
       </c>
       <c r="D324" t="s" s="2">
-        <v>962</v>
+        <v>647</v>
       </c>
       <c r="E324" t="s" s="2">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="325" ht="13.65" customHeight="1">
@@ -17709,10 +17695,10 @@
         <v>646</v>
       </c>
       <c r="D325" t="s" s="2">
-        <v>647</v>
+        <v>963</v>
       </c>
       <c r="E325" t="s" s="2">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="326" ht="13.65" customHeight="1">
@@ -17729,7 +17715,7 @@
         <v>965</v>
       </c>
       <c r="E326" t="s" s="2">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="327" ht="13.65" customHeight="1">
@@ -17740,13 +17726,13 @@
         <v>645</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D327" t="s" s="2">
-        <v>967</v>
+        <v>650</v>
       </c>
       <c r="E327" t="s" s="2">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="328" ht="13.65" customHeight="1">
@@ -17760,10 +17746,10 @@
         <v>649</v>
       </c>
       <c r="D328" t="s" s="2">
-        <v>650</v>
+        <v>968</v>
       </c>
       <c r="E328" t="s" s="2">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="329" ht="13.65" customHeight="1">
@@ -17780,7 +17766,7 @@
         <v>970</v>
       </c>
       <c r="E329" t="s" s="2">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="330" ht="13.65" customHeight="1">
@@ -17791,13 +17777,13 @@
         <v>645</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D330" t="s" s="2">
         <v>972</v>
       </c>
       <c r="E330" t="s" s="2">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="331" ht="13.65" customHeight="1">
@@ -17814,7 +17800,7 @@
         <v>974</v>
       </c>
       <c r="E331" t="s" s="2">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="332" ht="13.65" customHeight="1">
@@ -17831,7 +17817,7 @@
         <v>976</v>
       </c>
       <c r="E332" t="s" s="2">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="333" ht="13.65" customHeight="1">
@@ -17848,7 +17834,7 @@
         <v>978</v>
       </c>
       <c r="E333" t="s" s="2">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="334" ht="13.65" customHeight="1">
@@ -17859,13 +17845,13 @@
         <v>645</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D334" t="s" s="2">
         <v>980</v>
       </c>
       <c r="E334" t="s" s="2">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="335" ht="13.65" customHeight="1">
@@ -17882,7 +17868,7 @@
         <v>982</v>
       </c>
       <c r="E335" t="s" s="2">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="336" ht="13.65" customHeight="1">
@@ -17899,7 +17885,7 @@
         <v>984</v>
       </c>
       <c r="E336" t="s" s="2">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="337" ht="13.65" customHeight="1">
@@ -17916,7 +17902,7 @@
         <v>986</v>
       </c>
       <c r="E337" t="s" s="2">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="338" ht="13.65" customHeight="1">
@@ -17933,7 +17919,7 @@
         <v>988</v>
       </c>
       <c r="E338" t="s" s="2">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="339" ht="13.65" customHeight="1">
@@ -17944,13 +17930,13 @@
         <v>645</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>655</v>
+        <v>800</v>
       </c>
       <c r="D339" t="s" s="2">
-        <v>990</v>
+        <v>801</v>
       </c>
       <c r="E339" t="s" s="2">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="340" ht="13.65" customHeight="1">
@@ -17964,10 +17950,10 @@
         <v>800</v>
       </c>
       <c r="D340" t="s" s="2">
-        <v>801</v>
+        <v>991</v>
       </c>
       <c r="E340" t="s" s="2">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="341" ht="13.65" customHeight="1">
@@ -17984,7 +17970,7 @@
         <v>993</v>
       </c>
       <c r="E341" t="s" s="2">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="342" ht="13.65" customHeight="1">
@@ -18001,7 +17987,7 @@
         <v>995</v>
       </c>
       <c r="E342" t="s" s="2">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="343" ht="13.65" customHeight="1">
@@ -18009,16 +17995,16 @@
         <v>4</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>800</v>
+        <v>659</v>
       </c>
       <c r="D343" t="s" s="2">
-        <v>997</v>
+        <v>660</v>
       </c>
       <c r="E343" t="s" s="2">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="344" ht="13.65" customHeight="1">
@@ -18032,10 +18018,10 @@
         <v>659</v>
       </c>
       <c r="D344" t="s" s="2">
-        <v>660</v>
+        <v>998</v>
       </c>
       <c r="E344" t="s" s="2">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="345" ht="13.65" customHeight="1">
@@ -18052,7 +18038,7 @@
         <v>1000</v>
       </c>
       <c r="E345" t="s" s="2">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="346" ht="13.65" customHeight="1">
@@ -18069,7 +18055,7 @@
         <v>1002</v>
       </c>
       <c r="E346" t="s" s="2">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="347" ht="13.65" customHeight="1">
@@ -18080,13 +18066,13 @@
         <v>658</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="D347" t="s" s="2">
-        <v>1004</v>
+        <v>1240</v>
       </c>
       <c r="E347" t="s" s="2">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="348" ht="13.65" customHeight="1">
@@ -18100,10 +18086,10 @@
         <v>664</v>
       </c>
       <c r="D348" t="s" s="2">
-        <v>1243</v>
+        <v>667</v>
       </c>
       <c r="E348" t="s" s="2">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="349" ht="13.65" customHeight="1">
@@ -18117,10 +18103,10 @@
         <v>664</v>
       </c>
       <c r="D349" t="s" s="2">
-        <v>667</v>
+        <v>1007</v>
       </c>
       <c r="E349" t="s" s="2">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="350" ht="13.65" customHeight="1">
@@ -18131,13 +18117,13 @@
         <v>658</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>664</v>
+        <v>813</v>
       </c>
       <c r="D350" t="s" s="2">
-        <v>1009</v>
+        <v>814</v>
       </c>
       <c r="E350" t="s" s="2">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="351" ht="13.65" customHeight="1">
@@ -18151,10 +18137,10 @@
         <v>813</v>
       </c>
       <c r="D351" t="s" s="2">
-        <v>814</v>
+        <v>1010</v>
       </c>
       <c r="E351" t="s" s="2">
-        <v>1247</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="352" ht="13.65" customHeight="1">
@@ -18171,7 +18157,7 @@
         <v>1012</v>
       </c>
       <c r="E352" t="s" s="2">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="353" ht="13.65" customHeight="1">
@@ -18185,10 +18171,10 @@
         <v>813</v>
       </c>
       <c r="D353" t="s" s="2">
-        <v>1014</v>
+        <v>1247</v>
       </c>
       <c r="E353" t="s" s="2">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="354" ht="13.65" customHeight="1">
@@ -18199,13 +18185,13 @@
         <v>658</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>813</v>
+        <v>669</v>
       </c>
       <c r="D354" t="s" s="2">
-        <v>1250</v>
+        <v>816</v>
       </c>
       <c r="E354" t="s" s="2">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="355" ht="13.65" customHeight="1">
@@ -18219,10 +18205,10 @@
         <v>669</v>
       </c>
       <c r="D355" t="s" s="2">
-        <v>816</v>
+        <v>1015</v>
       </c>
       <c r="E355" t="s" s="2">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="356" ht="13.65" customHeight="1">
@@ -18239,7 +18225,7 @@
         <v>1017</v>
       </c>
       <c r="E356" t="s" s="2">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="357" ht="13.65" customHeight="1">
@@ -18256,7 +18242,7 @@
         <v>1019</v>
       </c>
       <c r="E357" t="s" s="2">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="358" ht="13.65" customHeight="1">
@@ -18267,13 +18253,13 @@
         <v>658</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D358" t="s" s="2">
         <v>1021</v>
       </c>
       <c r="E358" t="s" s="2">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="359" ht="13.65" customHeight="1">
@@ -18290,7 +18276,7 @@
         <v>1023</v>
       </c>
       <c r="E359" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="360" ht="13.65" customHeight="1">
@@ -18304,10 +18290,10 @@
         <v>674</v>
       </c>
       <c r="D360" t="s" s="2">
-        <v>1025</v>
+        <v>1255</v>
       </c>
       <c r="E360" t="s" s="2">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="361" ht="13.65" customHeight="1">
@@ -18315,16 +18301,16 @@
         <v>4</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D361" t="s" s="2">
-        <v>1258</v>
+        <v>679</v>
       </c>
       <c r="E361" t="s" s="2">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="362" ht="13.65" customHeight="1">
@@ -18338,10 +18324,10 @@
         <v>678</v>
       </c>
       <c r="D362" t="s" s="2">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E362" t="s" s="2">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="363" ht="13.65" customHeight="1">
@@ -18355,10 +18341,10 @@
         <v>678</v>
       </c>
       <c r="D363" t="s" s="2">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E363" t="s" s="2">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="364" ht="13.65" customHeight="1">
@@ -18372,10 +18358,10 @@
         <v>678</v>
       </c>
       <c r="D364" t="s" s="2">
-        <v>683</v>
+        <v>1028</v>
       </c>
       <c r="E364" t="s" s="2">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="365" ht="13.65" customHeight="1">
@@ -18386,13 +18372,13 @@
         <v>677</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D365" t="s" s="2">
-        <v>1030</v>
+        <v>686</v>
       </c>
       <c r="E365" t="s" s="2">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="366" ht="13.65" customHeight="1">
@@ -18406,10 +18392,10 @@
         <v>685</v>
       </c>
       <c r="D366" t="s" s="2">
-        <v>686</v>
+        <v>1031</v>
       </c>
       <c r="E366" t="s" s="2">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="367" ht="13.65" customHeight="1">
@@ -18426,7 +18412,7 @@
         <v>1033</v>
       </c>
       <c r="E367" t="s" s="2">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="368" ht="13.65" customHeight="1">
@@ -18443,7 +18429,7 @@
         <v>1035</v>
       </c>
       <c r="E368" t="s" s="2">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="369" ht="13.65" customHeight="1">
@@ -18460,7 +18446,7 @@
         <v>1037</v>
       </c>
       <c r="E369" t="s" s="2">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="370" ht="13.65" customHeight="1">
@@ -18477,7 +18463,7 @@
         <v>1039</v>
       </c>
       <c r="E370" t="s" s="2">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="371" ht="13.65" customHeight="1">
@@ -18488,13 +18474,13 @@
         <v>677</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D371" t="s" s="2">
-        <v>1041</v>
+        <v>693</v>
       </c>
       <c r="E371" t="s" s="2">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="372" ht="13.65" customHeight="1">
@@ -18508,10 +18494,10 @@
         <v>692</v>
       </c>
       <c r="D372" t="s" s="2">
-        <v>693</v>
+        <v>835</v>
       </c>
       <c r="E372" t="s" s="2">
-        <v>1270</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="373" ht="13.65" customHeight="1">
@@ -18525,10 +18511,10 @@
         <v>692</v>
       </c>
       <c r="D373" t="s" s="2">
-        <v>835</v>
+        <v>1043</v>
       </c>
       <c r="E373" t="s" s="2">
-        <v>1271</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="374" ht="13.65" customHeight="1">
@@ -18545,7 +18531,7 @@
         <v>1045</v>
       </c>
       <c r="E374" t="s" s="2">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="375" ht="13.65" customHeight="1">
@@ -18559,10 +18545,10 @@
         <v>692</v>
       </c>
       <c r="D375" t="s" s="2">
-        <v>1047</v>
+        <v>1271</v>
       </c>
       <c r="E375" t="s" s="2">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="376" ht="13.65" customHeight="1">
@@ -18573,13 +18559,13 @@
         <v>677</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D376" t="s" s="2">
-        <v>1274</v>
+        <v>1047</v>
       </c>
       <c r="E376" t="s" s="2">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="377" ht="13.65" customHeight="1">
@@ -18593,10 +18579,10 @@
         <v>695</v>
       </c>
       <c r="D377" t="s" s="2">
-        <v>1049</v>
+        <v>840</v>
       </c>
       <c r="E377" t="s" s="2">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="378" ht="13.65" customHeight="1">
@@ -18610,10 +18596,10 @@
         <v>695</v>
       </c>
       <c r="D378" t="s" s="2">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E378" t="s" s="2">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="379" ht="13.65" customHeight="1">
@@ -18627,10 +18613,10 @@
         <v>695</v>
       </c>
       <c r="D379" t="s" s="2">
-        <v>842</v>
+        <v>1051</v>
       </c>
       <c r="E379" t="s" s="2">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="380" ht="13.65" customHeight="1">
@@ -18647,7 +18633,7 @@
         <v>1053</v>
       </c>
       <c r="E380" t="s" s="2">
-        <v>1279</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="381" ht="13.65" customHeight="1">
@@ -18658,13 +18644,13 @@
         <v>677</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="D381" t="s" s="2">
-        <v>1055</v>
+        <v>701</v>
       </c>
       <c r="E381" t="s" s="2">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="382" ht="13.65" customHeight="1">
@@ -18678,10 +18664,10 @@
         <v>700</v>
       </c>
       <c r="D382" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E382" t="s" s="2">
-        <v>1281</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="383" ht="13.65" customHeight="1">
@@ -18695,10 +18681,10 @@
         <v>700</v>
       </c>
       <c r="D383" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E383" t="s" s="2">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="384" ht="13.65" customHeight="1">
@@ -18712,10 +18698,10 @@
         <v>700</v>
       </c>
       <c r="D384" t="s" s="2">
-        <v>705</v>
+        <v>1281</v>
       </c>
       <c r="E384" t="s" s="2">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="385" ht="13.65" customHeight="1">
@@ -18726,13 +18712,13 @@
         <v>677</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="D385" t="s" s="2">
-        <v>1284</v>
+        <v>708</v>
       </c>
       <c r="E385" t="s" s="2">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="386" ht="13.65" customHeight="1">
@@ -18746,10 +18732,10 @@
         <v>707</v>
       </c>
       <c r="D386" t="s" s="2">
-        <v>708</v>
+        <v>1060</v>
       </c>
       <c r="E386" t="s" s="2">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="387" ht="13.65" customHeight="1">
@@ -18766,7 +18752,7 @@
         <v>1062</v>
       </c>
       <c r="E387" t="s" s="2">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="388" ht="13.65" customHeight="1">
@@ -18780,10 +18766,10 @@
         <v>707</v>
       </c>
       <c r="D388" t="s" s="2">
-        <v>1064</v>
+        <v>1286</v>
       </c>
       <c r="E388" t="s" s="2">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="389" ht="13.65" customHeight="1">
@@ -18794,13 +18780,13 @@
         <v>677</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D389" t="s" s="2">
-        <v>1289</v>
+        <v>1064</v>
       </c>
       <c r="E389" t="s" s="2">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="390" ht="13.65" customHeight="1">
@@ -18814,10 +18800,10 @@
         <v>710</v>
       </c>
       <c r="D390" t="s" s="2">
-        <v>1066</v>
+        <v>713</v>
       </c>
       <c r="E390" t="s" s="2">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="391" ht="13.65" customHeight="1">
@@ -18831,10 +18817,10 @@
         <v>710</v>
       </c>
       <c r="D391" t="s" s="2">
-        <v>713</v>
+        <v>855</v>
       </c>
       <c r="E391" t="s" s="2">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="392" ht="13.65" customHeight="1">
@@ -18848,10 +18834,10 @@
         <v>710</v>
       </c>
       <c r="D392" t="s" s="2">
-        <v>855</v>
+        <v>1068</v>
       </c>
       <c r="E392" t="s" s="2">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="393" ht="13.65" customHeight="1">
@@ -18868,7 +18854,7 @@
         <v>1070</v>
       </c>
       <c r="E393" t="s" s="2">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="394" ht="13.65" customHeight="1">
@@ -18879,13 +18865,13 @@
         <v>677</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="D394" t="s" s="2">
         <v>1072</v>
       </c>
       <c r="E394" t="s" s="2">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="395" ht="13.65" customHeight="1">
@@ -18899,10 +18885,10 @@
         <v>715</v>
       </c>
       <c r="D395" t="s" s="2">
-        <v>1074</v>
+        <v>718</v>
       </c>
       <c r="E395" t="s" s="2">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="396" ht="13.65" customHeight="1">
@@ -18916,10 +18902,10 @@
         <v>715</v>
       </c>
       <c r="D396" t="s" s="2">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="E396" t="s" s="2">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="397" ht="13.65" customHeight="1">
@@ -18933,10 +18919,10 @@
         <v>715</v>
       </c>
       <c r="D397" t="s" s="2">
-        <v>720</v>
+        <v>1076</v>
       </c>
       <c r="E397" t="s" s="2">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="398" ht="13.65" customHeight="1">
@@ -18953,7 +18939,7 @@
         <v>1078</v>
       </c>
       <c r="E398" t="s" s="2">
-        <v>1299</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="399" ht="13.65" customHeight="1">
@@ -18964,13 +18950,13 @@
         <v>677</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>715</v>
+        <v>1080</v>
       </c>
       <c r="D399" t="s" s="2">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="E399" t="s" s="2">
-        <v>1300</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="400" ht="13.65" customHeight="1">
@@ -18981,13 +18967,13 @@
         <v>677</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D400" t="s" s="2">
         <v>1083</v>
       </c>
       <c r="E400" t="s" s="2">
-        <v>1301</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="401" ht="13.65" customHeight="1">
@@ -18998,13 +18984,13 @@
         <v>677</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D401" t="s" s="2">
         <v>1085</v>
       </c>
       <c r="E401" t="s" s="2">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="402" ht="13.65" customHeight="1">
@@ -19015,13 +19001,13 @@
         <v>677</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1082</v>
+        <v>1087</v>
       </c>
       <c r="D402" t="s" s="2">
-        <v>1087</v>
+        <v>1301</v>
       </c>
       <c r="E402" t="s" s="2">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="403" ht="13.65" customHeight="1">
@@ -19032,13 +19018,13 @@
         <v>677</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D403" t="s" s="2">
-        <v>1304</v>
+        <v>1090</v>
       </c>
       <c r="E403" t="s" s="2">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="404" ht="13.65" customHeight="1">
@@ -19049,13 +19035,13 @@
         <v>677</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D404" t="s" s="2">
         <v>1092</v>
       </c>
       <c r="E404" t="s" s="2">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="405" ht="13.65" customHeight="1">
@@ -19066,13 +19052,13 @@
         <v>677</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D405" t="s" s="2">
         <v>1094</v>
       </c>
       <c r="E405" t="s" s="2">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="406" ht="13.65" customHeight="1">
@@ -19083,13 +19069,13 @@
         <v>677</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1089</v>
+        <v>722</v>
       </c>
       <c r="D406" t="s" s="2">
-        <v>1096</v>
+        <v>723</v>
       </c>
       <c r="E406" t="s" s="2">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="407" ht="13.65" customHeight="1">
@@ -19103,10 +19089,10 @@
         <v>722</v>
       </c>
       <c r="D407" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E407" t="s" s="2">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="408" ht="13.65" customHeight="1">
@@ -19120,10 +19106,10 @@
         <v>722</v>
       </c>
       <c r="D408" t="s" s="2">
-        <v>725</v>
+        <v>863</v>
       </c>
       <c r="E408" t="s" s="2">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="409" ht="13.65" customHeight="1">
@@ -19131,16 +19117,16 @@
         <v>4</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>677</v>
+        <v>727</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="D409" t="s" s="2">
-        <v>863</v>
+        <v>729</v>
       </c>
       <c r="E409" t="s" s="2">
-        <v>1311</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="410" ht="13.65" customHeight="1">
@@ -19154,10 +19140,10 @@
         <v>728</v>
       </c>
       <c r="D410" t="s" s="2">
-        <v>729</v>
+        <v>1100</v>
       </c>
       <c r="E410" t="s" s="2">
-        <v>1312</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="411" ht="13.65" customHeight="1">
@@ -19171,10 +19157,10 @@
         <v>728</v>
       </c>
       <c r="D411" t="s" s="2">
-        <v>1102</v>
+        <v>733</v>
       </c>
       <c r="E411" t="s" s="2">
-        <v>1313</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="412" ht="13.65" customHeight="1">
@@ -19188,10 +19174,10 @@
         <v>728</v>
       </c>
       <c r="D412" t="s" s="2">
-        <v>733</v>
+        <v>1103</v>
       </c>
       <c r="E412" t="s" s="2">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="413" ht="13.65" customHeight="1">
@@ -19205,10 +19191,10 @@
         <v>728</v>
       </c>
       <c r="D413" t="s" s="2">
-        <v>1105</v>
+        <v>1313</v>
       </c>
       <c r="E413" t="s" s="2">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="414" ht="13.65" customHeight="1">
@@ -19219,13 +19205,13 @@
         <v>727</v>
       </c>
       <c r="C414" t="s" s="2">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="D414" t="s" s="2">
-        <v>1316</v>
+        <v>736</v>
       </c>
       <c r="E414" t="s" s="2">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="415" ht="13.65" customHeight="1">
@@ -19239,10 +19225,10 @@
         <v>735</v>
       </c>
       <c r="D415" t="s" s="2">
-        <v>736</v>
+        <v>1106</v>
       </c>
       <c r="E415" t="s" s="2">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="416" ht="13.65" customHeight="1">
@@ -19259,7 +19245,7 @@
         <v>1108</v>
       </c>
       <c r="E416" t="s" s="2">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="417" ht="13.65" customHeight="1">
@@ -19276,7 +19262,7 @@
         <v>1110</v>
       </c>
       <c r="E417" t="s" s="2">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="418" ht="13.65" customHeight="1">
@@ -19293,7 +19279,7 @@
         <v>1112</v>
       </c>
       <c r="E418" t="s" s="2">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="419" ht="13.65" customHeight="1">
@@ -19304,13 +19290,13 @@
         <v>727</v>
       </c>
       <c r="C419" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D419" t="s" s="2">
         <v>1114</v>
       </c>
       <c r="E419" t="s" s="2">
-        <v>1322</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="420" ht="13.65" customHeight="1">
@@ -19324,10 +19310,10 @@
         <v>738</v>
       </c>
       <c r="D420" t="s" s="2">
-        <v>1116</v>
+        <v>877</v>
       </c>
       <c r="E420" t="s" s="2">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="421" ht="13.65" customHeight="1">
@@ -19341,10 +19327,10 @@
         <v>738</v>
       </c>
       <c r="D421" t="s" s="2">
-        <v>877</v>
+        <v>1117</v>
       </c>
       <c r="E421" t="s" s="2">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="422" ht="13.65" customHeight="1">
@@ -19358,10 +19344,10 @@
         <v>738</v>
       </c>
       <c r="D422" t="s" s="2">
-        <v>1119</v>
+        <v>1323</v>
       </c>
       <c r="E422" t="s" s="2">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="423" ht="13.65" customHeight="1">
@@ -19375,10 +19361,10 @@
         <v>738</v>
       </c>
       <c r="D423" t="s" s="2">
-        <v>1326</v>
+        <v>1121</v>
       </c>
       <c r="E423" t="s" s="2">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="424" ht="13.65" customHeight="1">
@@ -19395,7 +19381,7 @@
         <v>1123</v>
       </c>
       <c r="E424" t="s" s="2">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="425" ht="13.65" customHeight="1">
@@ -19406,13 +19392,13 @@
         <v>727</v>
       </c>
       <c r="C425" t="s" s="2">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="D425" t="s" s="2">
-        <v>1125</v>
+        <v>884</v>
       </c>
       <c r="E425" t="s" s="2">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="426" ht="13.65" customHeight="1">
@@ -19426,10 +19412,10 @@
         <v>743</v>
       </c>
       <c r="D426" t="s" s="2">
-        <v>884</v>
+        <v>746</v>
       </c>
       <c r="E426" t="s" s="2">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="427" ht="13.65" customHeight="1">
@@ -19443,10 +19429,10 @@
         <v>743</v>
       </c>
       <c r="D427" t="s" s="2">
-        <v>746</v>
+        <v>1127</v>
       </c>
       <c r="E427" t="s" s="2">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="428" ht="13.65" customHeight="1">
@@ -19463,7 +19449,7 @@
         <v>1129</v>
       </c>
       <c r="E428" t="s" s="2">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="429" ht="13.65" customHeight="1">
@@ -19477,10 +19463,10 @@
         <v>743</v>
       </c>
       <c r="D429" t="s" s="2">
-        <v>1131</v>
+        <v>889</v>
       </c>
       <c r="E429" t="s" s="2">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="430" ht="13.65" customHeight="1">
@@ -19491,13 +19477,13 @@
         <v>727</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>743</v>
+        <v>1132</v>
       </c>
       <c r="D430" t="s" s="2">
-        <v>889</v>
+        <v>1133</v>
       </c>
       <c r="E430" t="s" s="2">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="431" ht="13.65" customHeight="1">
@@ -19508,13 +19494,13 @@
         <v>727</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D431" t="s" s="2">
         <v>1135</v>
       </c>
       <c r="E431" t="s" s="2">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="432" ht="13.65" customHeight="1">
@@ -19525,13 +19511,13 @@
         <v>727</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="D432" t="s" s="2">
         <v>1137</v>
       </c>
       <c r="E432" t="s" s="2">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="433" ht="13.65" customHeight="1">
@@ -19542,13 +19528,13 @@
         <v>727</v>
       </c>
       <c r="C433" t="s" s="2">
-        <v>1134</v>
+        <v>748</v>
       </c>
       <c r="D433" t="s" s="2">
-        <v>1139</v>
+        <v>749</v>
       </c>
       <c r="E433" t="s" s="2">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="434" ht="13.65" customHeight="1">
@@ -19562,10 +19548,10 @@
         <v>748</v>
       </c>
       <c r="D434" t="s" s="2">
-        <v>749</v>
+        <v>892</v>
       </c>
       <c r="E434" t="s" s="2">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="435" ht="13.65" customHeight="1">
@@ -19579,10 +19565,10 @@
         <v>748</v>
       </c>
       <c r="D435" t="s" s="2">
-        <v>892</v>
+        <v>1141</v>
       </c>
       <c r="E435" t="s" s="2">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="436" ht="13.65" customHeight="1">
@@ -19596,10 +19582,10 @@
         <v>748</v>
       </c>
       <c r="D436" t="s" s="2">
-        <v>1143</v>
+        <v>751</v>
       </c>
       <c r="E436" t="s" s="2">
-        <v>1340</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="437" ht="13.65" customHeight="1">
@@ -19613,10 +19599,10 @@
         <v>748</v>
       </c>
       <c r="D437" t="s" s="2">
-        <v>751</v>
+        <v>1144</v>
       </c>
       <c r="E437" t="s" s="2">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="438" ht="13.65" customHeight="1">
@@ -19630,10 +19616,10 @@
         <v>748</v>
       </c>
       <c r="D438" t="s" s="2">
-        <v>1146</v>
+        <v>899</v>
       </c>
       <c r="E438" t="s" s="2">
-        <v>1342</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="439" ht="13.65" customHeight="1">
@@ -19647,10 +19633,10 @@
         <v>748</v>
       </c>
       <c r="D439" t="s" s="2">
-        <v>1148</v>
+        <v>1341</v>
       </c>
       <c r="E439" t="s" s="2">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="440" ht="13.65" customHeight="1">
@@ -19664,10 +19650,10 @@
         <v>748</v>
       </c>
       <c r="D440" t="s" s="2">
-        <v>1344</v>
+        <v>1149</v>
       </c>
       <c r="E440" t="s" s="2">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="441" ht="13.65" customHeight="1">
@@ -19681,10 +19667,10 @@
         <v>748</v>
       </c>
       <c r="D441" t="s" s="2">
-        <v>1152</v>
+        <v>1344</v>
       </c>
       <c r="E441" t="s" s="2">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="442" ht="13.65" customHeight="1">
@@ -19695,13 +19681,13 @@
         <v>727</v>
       </c>
       <c r="C442" t="s" s="2">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D442" t="s" s="2">
-        <v>1347</v>
+        <v>754</v>
       </c>
       <c r="E442" t="s" s="2">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="443" ht="13.65" customHeight="1">
@@ -19715,10 +19701,10 @@
         <v>753</v>
       </c>
       <c r="D443" t="s" s="2">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E443" t="s" s="2">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="444" ht="13.65" customHeight="1">
@@ -19732,10 +19718,10 @@
         <v>753</v>
       </c>
       <c r="D444" t="s" s="2">
-        <v>756</v>
+        <v>903</v>
       </c>
       <c r="E444" t="s" s="2">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="445" ht="13.65" customHeight="1">
@@ -19752,7 +19738,7 @@
         <v>905</v>
       </c>
       <c r="E445" t="s" s="2">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="446" ht="13.65" customHeight="1">
@@ -19766,10 +19752,10 @@
         <v>753</v>
       </c>
       <c r="D446" t="s" s="2">
-        <v>907</v>
+        <v>1155</v>
       </c>
       <c r="E446" t="s" s="2">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="447" ht="13.65" customHeight="1">
@@ -19783,10 +19769,10 @@
         <v>753</v>
       </c>
       <c r="D447" t="s" s="2">
-        <v>1158</v>
+        <v>907</v>
       </c>
       <c r="E447" t="s" s="2">
-        <v>1353</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="448" ht="13.65" customHeight="1">
@@ -19803,7 +19789,7 @@
         <v>909</v>
       </c>
       <c r="E448" t="s" s="2">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="449" ht="13.65" customHeight="1">
@@ -19817,10 +19803,10 @@
         <v>753</v>
       </c>
       <c r="D449" t="s" s="2">
-        <v>911</v>
+        <v>1353</v>
       </c>
       <c r="E449" t="s" s="2">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="450" ht="13.65" customHeight="1">
@@ -19831,13 +19817,13 @@
         <v>727</v>
       </c>
       <c r="C450" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="D450" t="s" s="2">
-        <v>1356</v>
+        <v>761</v>
       </c>
       <c r="E450" t="s" s="2">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="451" ht="13.65" customHeight="1">
@@ -19851,10 +19837,10 @@
         <v>760</v>
       </c>
       <c r="D451" t="s" s="2">
-        <v>761</v>
+        <v>912</v>
       </c>
       <c r="E451" t="s" s="2">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="452" ht="13.65" customHeight="1">
@@ -19871,7 +19857,7 @@
         <v>914</v>
       </c>
       <c r="E452" t="s" s="2">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="453" ht="13.65" customHeight="1">
@@ -19885,10 +19871,10 @@
         <v>760</v>
       </c>
       <c r="D453" t="s" s="2">
-        <v>916</v>
+        <v>1162</v>
       </c>
       <c r="E453" t="s" s="2">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="454" ht="13.65" customHeight="1">
@@ -19899,13 +19885,13 @@
         <v>727</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>760</v>
+        <v>916</v>
       </c>
       <c r="D454" t="s" s="2">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="E454" t="s" s="2">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="455" ht="13.65" customHeight="1">
@@ -19916,13 +19902,13 @@
         <v>727</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D455" t="s" s="2">
-        <v>1167</v>
+        <v>920</v>
       </c>
       <c r="E455" t="s" s="2">
-        <v>1362</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="456" ht="13.65" customHeight="1">
@@ -19933,13 +19919,13 @@
         <v>727</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D456" t="s" s="2">
-        <v>922</v>
+        <v>1167</v>
       </c>
       <c r="E456" t="s" s="2">
-        <v>1363</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="457" ht="13.65" customHeight="1">
@@ -19950,13 +19936,13 @@
         <v>727</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D457" t="s" s="2">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="E457" t="s" s="2">
-        <v>1364</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="458" ht="13.65" customHeight="1">
@@ -19967,13 +19953,13 @@
         <v>727</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D458" t="s" s="2">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="E458" t="s" s="2">
-        <v>1365</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="459" ht="13.65" customHeight="1">
@@ -19984,13 +19970,13 @@
         <v>727</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D459" t="s" s="2">
-        <v>1174</v>
+        <v>1364</v>
       </c>
       <c r="E459" t="s" s="2">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="460" ht="13.65" customHeight="1">
@@ -20001,13 +19987,13 @@
         <v>727</v>
       </c>
       <c r="C460" t="s" s="2">
-        <v>921</v>
+        <v>763</v>
       </c>
       <c r="D460" t="s" s="2">
-        <v>1367</v>
+        <v>764</v>
       </c>
       <c r="E460" t="s" s="2">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="461" ht="13.65" customHeight="1">
@@ -20021,10 +20007,10 @@
         <v>763</v>
       </c>
       <c r="D461" t="s" s="2">
-        <v>764</v>
+        <v>1367</v>
       </c>
       <c r="E461" t="s" s="2">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="462" ht="13.65" customHeight="1">
@@ -20038,10 +20024,10 @@
         <v>763</v>
       </c>
       <c r="D462" t="s" s="2">
-        <v>1370</v>
+        <v>926</v>
       </c>
       <c r="E462" t="s" s="2">
-        <v>1371</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="463" ht="13.65" customHeight="1">
@@ -20055,10 +20041,10 @@
         <v>763</v>
       </c>
       <c r="D463" t="s" s="2">
-        <v>928</v>
+        <v>1177</v>
       </c>
       <c r="E463" t="s" s="2">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="464" ht="13.65" customHeight="1">
@@ -20072,10 +20058,10 @@
         <v>763</v>
       </c>
       <c r="D464" t="s" s="2">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E464" t="s" s="2">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="465" ht="13.65" customHeight="1">
@@ -20089,10 +20075,10 @@
         <v>763</v>
       </c>
       <c r="D465" t="s" s="2">
-        <v>1182</v>
+        <v>1372</v>
       </c>
       <c r="E465" t="s" s="2">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="466" ht="13.65" customHeight="1">
@@ -20103,13 +20089,13 @@
         <v>727</v>
       </c>
       <c r="C466" t="s" s="2">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D466" t="s" s="2">
-        <v>1375</v>
+        <v>769</v>
       </c>
       <c r="E466" t="s" s="2">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="467" ht="13.65" customHeight="1">
@@ -20123,10 +20109,10 @@
         <v>768</v>
       </c>
       <c r="D467" t="s" s="2">
-        <v>769</v>
+        <v>1182</v>
       </c>
       <c r="E467" t="s" s="2">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="468" ht="13.65" customHeight="1">
@@ -20140,10 +20126,10 @@
         <v>768</v>
       </c>
       <c r="D468" t="s" s="2">
-        <v>1185</v>
+        <v>931</v>
       </c>
       <c r="E468" t="s" s="2">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="469" ht="13.65" customHeight="1">
@@ -20157,10 +20143,10 @@
         <v>768</v>
       </c>
       <c r="D469" t="s" s="2">
-        <v>933</v>
+        <v>1185</v>
       </c>
       <c r="E469" t="s" s="2">
-        <v>1379</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="470" ht="13.65" customHeight="1">
@@ -20174,10 +20160,10 @@
         <v>768</v>
       </c>
       <c r="D470" t="s" s="2">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="E470" t="s" s="2">
-        <v>1380</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="471" ht="13.65" customHeight="1">
@@ -20191,10 +20177,10 @@
         <v>768</v>
       </c>
       <c r="D471" t="s" s="2">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="E471" t="s" s="2">
-        <v>1381</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="472" ht="13.65" customHeight="1">
@@ -20208,10 +20194,10 @@
         <v>768</v>
       </c>
       <c r="D472" t="s" s="2">
-        <v>1192</v>
+        <v>1380</v>
       </c>
       <c r="E472" t="s" s="2">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="473" ht="13.65" customHeight="1">
@@ -20225,10 +20211,10 @@
         <v>768</v>
       </c>
       <c r="D473" t="s" s="2">
+        <v>1382</v>
+      </c>
+      <c r="E473" t="s" s="2">
         <v>1383</v>
-      </c>
-      <c r="E473" t="s" s="2">
-        <v>1384</v>
       </c>
     </row>
     <row r="474" ht="13.65" customHeight="1">
@@ -20239,13 +20225,13 @@
         <v>727</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>768</v>
+        <v>935</v>
       </c>
       <c r="D474" t="s" s="2">
-        <v>1385</v>
+        <v>936</v>
       </c>
       <c r="E474" t="s" s="2">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="475" ht="13.65" customHeight="1">
@@ -20256,13 +20242,13 @@
         <v>727</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D475" t="s" s="2">
-        <v>938</v>
+        <v>1192</v>
       </c>
       <c r="E475" t="s" s="2">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="476" ht="13.65" customHeight="1">
@@ -20273,13 +20259,13 @@
         <v>727</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D476" t="s" s="2">
-        <v>1195</v>
+        <v>938</v>
       </c>
       <c r="E476" t="s" s="2">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="477" ht="13.65" customHeight="1">
@@ -20290,13 +20276,13 @@
         <v>727</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D477" t="s" s="2">
-        <v>940</v>
+        <v>1195</v>
       </c>
       <c r="E477" t="s" s="2">
-        <v>1389</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="478" ht="13.65" customHeight="1">
@@ -20307,13 +20293,13 @@
         <v>727</v>
       </c>
       <c r="C478" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D478" t="s" s="2">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E478" t="s" s="2">
-        <v>1390</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="479" ht="13.65" customHeight="1">
@@ -20324,30 +20310,13 @@
         <v>727</v>
       </c>
       <c r="C479" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="D479" t="s" s="2">
-        <v>1200</v>
+        <v>1389</v>
       </c>
       <c r="E479" t="s" s="2">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="480" ht="13.65" customHeight="1">
-      <c r="A480" s="4">
-        <v>4</v>
-      </c>
-      <c r="B480" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="C480" t="s" s="2">
-        <v>937</v>
-      </c>
-      <c r="D480" t="s" s="2">
-        <v>1392</v>
-      </c>
-      <c r="E480" t="s" s="2">
-        <v>1393</v>
+        <v>1390</v>
       </c>
     </row>
   </sheetData>
@@ -20368,9 +20337,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.1562" style="6" customWidth="1"/>
-    <col min="2" max="2" width="28.5469" style="6" customWidth="1"/>
-    <col min="3" max="3" width="30.9688" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.1719" style="6" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="31" style="6" customWidth="1"/>
     <col min="4" max="4" width="8.85156" style="6" customWidth="1"/>
     <col min="5" max="5" width="8.85156" style="6" customWidth="1"/>
     <col min="6" max="256" width="8.85156" style="6" customWidth="1"/>
@@ -20385,10 +20354,10 @@
     </row>
     <row r="2" ht="13.65" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -20396,10 +20365,10 @@
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -20414,136 +20383,136 @@
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" t="s" s="2">
+        <v>1395</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>1396</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>1397</v>
+      </c>
+      <c r="D5" t="s" s="2">
         <v>1398</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>1399</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>1400</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>1401</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="B9" t="s" s="2">
+        <v>1405</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>1400</v>
+      </c>
+      <c r="D9" t="s" s="2">
         <v>1408</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>1403</v>
-      </c>
-      <c r="D9" t="s" s="2">
-        <v>1411</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="13.65" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="13.65" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="13.65" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E13" s="3"/>
     </row>

--- a/d_up_loads/细则自评_new.xlsx
+++ b/d_up_loads/细则自评_new.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1411">
   <si>
     <t>等级</t>
   </si>
@@ -2505,18 +2505,12 @@
     <t>manage_2_e0ab6ee2ecef6405de65d7f498b885ac</t>
   </si>
   <si>
-    <t>应组织相关部门和有关安全技术专家对安全设</t>
+    <t>应组织相关部门和有关安全技术专家对安全设计方案的合理性和正确性进行论证和审定，并且经过批准后，才能正式实施</t>
   </si>
   <si>
     <t>manage_2_6aefb8550b43854c8469e916406ca15e</t>
   </si>
   <si>
-    <t>计方案的合理性和正确性进行论证和审定，并且经过批准后，才能正式实施</t>
-  </si>
-  <si>
-    <t>manage_2_19c315d12fb354953b0751c28e419578</t>
-  </si>
-  <si>
     <t>manage_2_e32678ef5c68343293c8a9bb11a71860</t>
   </si>
   <si>
@@ -2625,16 +2619,10 @@
     <t>manage_2_14cdd5aad050d35790f96d974af2649c</t>
   </si>
   <si>
-    <t>应加强对办公环境的保密性管理，包括工作人</t>
+    <t>应加强对办公环境的保密性管理，包括工作人员调离办公室应立即交还该办公室钥匙和不在办公区接待来访人员等</t>
   </si>
   <si>
     <t>manage_2_b0d790be4030038e65446eccb5285493</t>
-  </si>
-  <si>
-    <t>员调离办公室应立即交还该办公室钥匙和不在办公区接待来访人员等</t>
-  </si>
-  <si>
-    <t>manage_2_1e346d10bb45791f1a2e65cda964873b</t>
   </si>
   <si>
     <t>manage_2_d70335f3e47765777e97a6df470954f0</t>
@@ -12166,7 +12154,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E479"/>
+  <dimension ref="A1:E477"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -12175,8 +12163,8 @@
     <col min="1" max="1" width="8.85156" style="5" customWidth="1"/>
     <col min="2" max="2" width="8.85156" style="5" customWidth="1"/>
     <col min="3" max="3" width="8.85156" style="5" customWidth="1"/>
-    <col min="4" max="4" width="80.2031" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.2344" style="5" customWidth="1"/>
+    <col min="4" max="4" width="80.1719" style="5" customWidth="1"/>
+    <col min="5" max="5" width="39.3516" style="5" customWidth="1"/>
     <col min="6" max="256" width="8.85156" style="5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13663,13 +13651,13 @@
         <v>677</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D88" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="E88" t="s" s="2">
         <v>832</v>
-      </c>
-      <c r="E88" t="s" s="2">
-        <v>833</v>
       </c>
     </row>
     <row r="89" ht="13.65" customHeight="1">
@@ -13683,7 +13671,7 @@
         <v>692</v>
       </c>
       <c r="D89" t="s" s="2">
-        <v>693</v>
+        <v>833</v>
       </c>
       <c r="E89" t="s" s="2">
         <v>834</v>
@@ -13714,13 +13702,13 @@
         <v>677</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D91" t="s" s="2">
+        <v>696</v>
+      </c>
+      <c r="E91" t="s" s="2">
         <v>837</v>
-      </c>
-      <c r="E91" t="s" s="2">
-        <v>838</v>
       </c>
     </row>
     <row r="92" ht="13.65" customHeight="1">
@@ -13734,7 +13722,7 @@
         <v>695</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>696</v>
+        <v>838</v>
       </c>
       <c r="E92" t="s" s="2">
         <v>839</v>
@@ -13765,13 +13753,13 @@
         <v>677</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="D94" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="E94" t="s" s="2">
         <v>842</v>
-      </c>
-      <c r="E94" t="s" s="2">
-        <v>843</v>
       </c>
     </row>
     <row r="95" ht="13.65" customHeight="1">
@@ -13785,10 +13773,10 @@
         <v>700</v>
       </c>
       <c r="D95" t="s" s="2">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="96" ht="13.65" customHeight="1">
@@ -13802,10 +13790,10 @@
         <v>700</v>
       </c>
       <c r="D96" t="s" s="2">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="97" ht="13.65" customHeight="1">
@@ -13819,7 +13807,7 @@
         <v>700</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>705</v>
+        <v>845</v>
       </c>
       <c r="E97" t="s" s="2">
         <v>846</v>
@@ -13833,13 +13821,13 @@
         <v>677</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="D98" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="E98" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="E98" t="s" s="2">
-        <v>848</v>
       </c>
     </row>
     <row r="99" ht="13.65" customHeight="1">
@@ -13853,7 +13841,7 @@
         <v>707</v>
       </c>
       <c r="D99" t="s" s="2">
-        <v>708</v>
+        <v>848</v>
       </c>
       <c r="E99" t="s" s="2">
         <v>849</v>
@@ -13867,13 +13855,13 @@
         <v>677</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D100" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="E100" t="s" s="2">
         <v>850</v>
-      </c>
-      <c r="E100" t="s" s="2">
-        <v>851</v>
       </c>
     </row>
     <row r="101" ht="13.65" customHeight="1">
@@ -13887,7 +13875,7 @@
         <v>710</v>
       </c>
       <c r="D101" t="s" s="2">
-        <v>711</v>
+        <v>851</v>
       </c>
       <c r="E101" t="s" s="2">
         <v>852</v>
@@ -13918,13 +13906,13 @@
         <v>677</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="D103" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="E103" t="s" s="2">
         <v>855</v>
-      </c>
-      <c r="E103" t="s" s="2">
-        <v>856</v>
       </c>
     </row>
     <row r="104" ht="13.65" customHeight="1">
@@ -13938,10 +13926,10 @@
         <v>715</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="105" ht="13.65" customHeight="1">
@@ -13955,7 +13943,7 @@
         <v>715</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>718</v>
+        <v>857</v>
       </c>
       <c r="E105" t="s" s="2">
         <v>858</v>
@@ -13969,13 +13957,13 @@
         <v>677</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="D106" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="E106" t="s" s="2">
         <v>859</v>
-      </c>
-      <c r="E106" t="s" s="2">
-        <v>860</v>
       </c>
     </row>
     <row r="107" ht="13.65" customHeight="1">
@@ -13989,10 +13977,10 @@
         <v>722</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="108" ht="13.65" customHeight="1">
@@ -14006,7 +13994,7 @@
         <v>722</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>725</v>
+        <v>861</v>
       </c>
       <c r="E108" t="s" s="2">
         <v>862</v>
@@ -14017,16 +14005,16 @@
         <v>2</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>677</v>
+        <v>727</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="D109" t="s" s="2">
+        <v>729</v>
+      </c>
+      <c r="E109" t="s" s="2">
         <v>863</v>
-      </c>
-      <c r="E109" t="s" s="2">
-        <v>864</v>
       </c>
     </row>
     <row r="110" ht="13.65" customHeight="1">
@@ -14040,10 +14028,10 @@
         <v>728</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E110" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="111" ht="13.65" customHeight="1">
@@ -14057,7 +14045,7 @@
         <v>728</v>
       </c>
       <c r="D111" t="s" s="2">
-        <v>731</v>
+        <v>865</v>
       </c>
       <c r="E111" t="s" s="2">
         <v>866</v>
@@ -14074,10 +14062,10 @@
         <v>728</v>
       </c>
       <c r="D112" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="E112" t="s" s="2">
         <v>867</v>
-      </c>
-      <c r="E112" t="s" s="2">
-        <v>868</v>
       </c>
     </row>
     <row r="113" ht="13.65" customHeight="1">
@@ -14091,7 +14079,7 @@
         <v>728</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>733</v>
+        <v>868</v>
       </c>
       <c r="E113" t="s" s="2">
         <v>869</v>
@@ -14105,13 +14093,13 @@
         <v>727</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="D114" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="E114" t="s" s="2">
         <v>870</v>
-      </c>
-      <c r="E114" t="s" s="2">
-        <v>871</v>
       </c>
     </row>
     <row r="115" ht="13.65" customHeight="1">
@@ -14122,13 +14110,13 @@
         <v>727</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="D115" t="s" s="2">
+        <v>871</v>
+      </c>
+      <c r="E115" t="s" s="2">
         <v>872</v>
-      </c>
-      <c r="E115" t="s" s="2">
-        <v>873</v>
       </c>
     </row>
     <row r="116" ht="13.65" customHeight="1">
@@ -14139,10 +14127,10 @@
         <v>727</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>736</v>
+        <v>873</v>
       </c>
       <c r="E116" t="s" s="2">
         <v>874</v>
@@ -14156,13 +14144,13 @@
         <v>727</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D117" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="E117" t="s" s="2">
         <v>875</v>
-      </c>
-      <c r="E117" t="s" s="2">
-        <v>876</v>
       </c>
     </row>
     <row r="118" ht="13.65" customHeight="1">
@@ -14176,10 +14164,10 @@
         <v>738</v>
       </c>
       <c r="D118" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="E118" t="s" s="2">
         <v>877</v>
-      </c>
-      <c r="E118" t="s" s="2">
-        <v>878</v>
       </c>
     </row>
     <row r="119" ht="13.65" customHeight="1">
@@ -14193,7 +14181,7 @@
         <v>738</v>
       </c>
       <c r="D119" t="s" s="2">
-        <v>741</v>
+        <v>878</v>
       </c>
       <c r="E119" t="s" s="2">
         <v>879</v>
@@ -14207,7 +14195,7 @@
         <v>727</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>880</v>
@@ -14224,13 +14212,13 @@
         <v>727</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="D121" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="E121" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="E121" t="s" s="2">
-        <v>883</v>
       </c>
     </row>
     <row r="122" ht="13.65" customHeight="1">
@@ -14244,10 +14232,10 @@
         <v>743</v>
       </c>
       <c r="D122" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="E122" t="s" s="2">
         <v>884</v>
-      </c>
-      <c r="E122" t="s" s="2">
-        <v>885</v>
       </c>
     </row>
     <row r="123" ht="13.65" customHeight="1">
@@ -14261,7 +14249,7 @@
         <v>743</v>
       </c>
       <c r="D123" t="s" s="2">
-        <v>746</v>
+        <v>885</v>
       </c>
       <c r="E123" t="s" s="2">
         <v>886</v>
@@ -14275,13 +14263,13 @@
         <v>727</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="D124" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="E124" t="s" s="2">
         <v>887</v>
-      </c>
-      <c r="E124" t="s" s="2">
-        <v>888</v>
       </c>
     </row>
     <row r="125" ht="13.65" customHeight="1">
@@ -14292,13 +14280,13 @@
         <v>727</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="D125" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="E125" t="s" s="2">
         <v>889</v>
-      </c>
-      <c r="E125" t="s" s="2">
-        <v>890</v>
       </c>
     </row>
     <row r="126" ht="13.65" customHeight="1">
@@ -14312,7 +14300,7 @@
         <v>748</v>
       </c>
       <c r="D126" t="s" s="2">
-        <v>749</v>
+        <v>890</v>
       </c>
       <c r="E126" t="s" s="2">
         <v>891</v>
@@ -14329,10 +14317,10 @@
         <v>748</v>
       </c>
       <c r="D127" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="E127" t="s" s="2">
         <v>892</v>
-      </c>
-      <c r="E127" t="s" s="2">
-        <v>893</v>
       </c>
     </row>
     <row r="128" ht="13.65" customHeight="1">
@@ -14346,10 +14334,10 @@
         <v>748</v>
       </c>
       <c r="D128" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="E128" t="s" s="2">
         <v>894</v>
-      </c>
-      <c r="E128" t="s" s="2">
-        <v>895</v>
       </c>
     </row>
     <row r="129" ht="13.65" customHeight="1">
@@ -14363,7 +14351,7 @@
         <v>748</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>751</v>
+        <v>895</v>
       </c>
       <c r="E129" t="s" s="2">
         <v>896</v>
@@ -14377,13 +14365,13 @@
         <v>727</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D130" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="E130" t="s" s="2">
         <v>897</v>
-      </c>
-      <c r="E130" t="s" s="2">
-        <v>898</v>
       </c>
     </row>
     <row r="131" ht="13.65" customHeight="1">
@@ -14394,13 +14382,13 @@
         <v>727</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D131" t="s" s="2">
-        <v>899</v>
+        <v>756</v>
       </c>
       <c r="E131" t="s" s="2">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="132" ht="13.65" customHeight="1">
@@ -14414,10 +14402,10 @@
         <v>753</v>
       </c>
       <c r="D132" t="s" s="2">
-        <v>754</v>
+        <v>899</v>
       </c>
       <c r="E132" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="133" ht="13.65" customHeight="1">
@@ -14431,7 +14419,7 @@
         <v>753</v>
       </c>
       <c r="D133" t="s" s="2">
-        <v>756</v>
+        <v>901</v>
       </c>
       <c r="E133" t="s" s="2">
         <v>902</v>
@@ -14479,13 +14467,13 @@
         <v>727</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="D136" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="E136" t="s" s="2">
         <v>907</v>
-      </c>
-      <c r="E136" t="s" s="2">
-        <v>908</v>
       </c>
     </row>
     <row r="137" ht="13.65" customHeight="1">
@@ -14496,13 +14484,13 @@
         <v>727</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="D137" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="E137" t="s" s="2">
         <v>909</v>
-      </c>
-      <c r="E137" t="s" s="2">
-        <v>910</v>
       </c>
     </row>
     <row r="138" ht="13.65" customHeight="1">
@@ -14516,7 +14504,7 @@
         <v>760</v>
       </c>
       <c r="D138" t="s" s="2">
-        <v>761</v>
+        <v>910</v>
       </c>
       <c r="E138" t="s" s="2">
         <v>911</v>
@@ -14530,13 +14518,13 @@
         <v>727</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>760</v>
+        <v>912</v>
       </c>
       <c r="D139" t="s" s="2">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E139" t="s" s="2">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="140" ht="13.65" customHeight="1">
@@ -14547,13 +14535,13 @@
         <v>727</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>760</v>
+        <v>915</v>
       </c>
       <c r="D140" t="s" s="2">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="E140" t="s" s="2">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="141" ht="13.65" customHeight="1">
@@ -14564,13 +14552,13 @@
         <v>727</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D141" t="s" s="2">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E141" t="s" s="2">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="142" ht="13.65" customHeight="1">
@@ -14581,13 +14569,13 @@
         <v>727</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>919</v>
+        <v>763</v>
       </c>
       <c r="D142" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="E142" t="s" s="2">
         <v>920</v>
-      </c>
-      <c r="E142" t="s" s="2">
-        <v>921</v>
       </c>
     </row>
     <row r="143" ht="13.65" customHeight="1">
@@ -14598,13 +14586,13 @@
         <v>727</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>919</v>
+        <v>763</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>922</v>
+        <v>766</v>
       </c>
       <c r="E143" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="144" ht="13.65" customHeight="1">
@@ -14618,10 +14606,10 @@
         <v>763</v>
       </c>
       <c r="D144" t="s" s="2">
-        <v>764</v>
+        <v>922</v>
       </c>
       <c r="E144" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="145" ht="13.65" customHeight="1">
@@ -14632,13 +14620,13 @@
         <v>727</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D145" t="s" s="2">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="E145" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="146" ht="13.65" customHeight="1">
@@ -14649,13 +14637,13 @@
         <v>727</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D146" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="E146" t="s" s="2">
         <v>926</v>
-      </c>
-      <c r="E146" t="s" s="2">
-        <v>927</v>
       </c>
     </row>
     <row r="147" ht="13.65" customHeight="1">
@@ -14669,7 +14657,7 @@
         <v>768</v>
       </c>
       <c r="D147" t="s" s="2">
-        <v>769</v>
+        <v>927</v>
       </c>
       <c r="E147" t="s" s="2">
         <v>928</v>
@@ -14700,13 +14688,13 @@
         <v>727</v>
       </c>
       <c r="C149" t="s" s="2">
-        <v>768</v>
+        <v>931</v>
       </c>
       <c r="D149" t="s" s="2">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E149" t="s" s="2">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="150" ht="13.65" customHeight="1">
@@ -14717,47 +14705,47 @@
         <v>727</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>768</v>
+        <v>931</v>
       </c>
       <c r="D150" t="s" s="2">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E150" t="s" s="2">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="151" ht="13.65" customHeight="1">
       <c r="A151" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>727</v>
+        <v>636</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>935</v>
+        <v>637</v>
       </c>
       <c r="D151" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="E151" t="s" s="2">
         <v>936</v>
-      </c>
-      <c r="E151" t="s" s="2">
-        <v>937</v>
       </c>
     </row>
     <row r="152" ht="13.65" customHeight="1">
       <c r="A152" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>727</v>
+        <v>636</v>
       </c>
       <c r="C152" t="s" s="2">
-        <v>935</v>
+        <v>637</v>
       </c>
       <c r="D152" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="E152" t="s" s="2">
         <v>938</v>
-      </c>
-      <c r="E152" t="s" s="2">
-        <v>939</v>
       </c>
     </row>
     <row r="153" ht="13.65" customHeight="1">
@@ -14771,7 +14759,7 @@
         <v>637</v>
       </c>
       <c r="D153" t="s" s="2">
-        <v>773</v>
+        <v>939</v>
       </c>
       <c r="E153" t="s" s="2">
         <v>940</v>
@@ -14802,13 +14790,13 @@
         <v>636</v>
       </c>
       <c r="C155" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D155" t="s" s="2">
+        <v>779</v>
+      </c>
+      <c r="E155" t="s" s="2">
         <v>943</v>
-      </c>
-      <c r="E155" t="s" s="2">
-        <v>944</v>
       </c>
     </row>
     <row r="156" ht="13.65" customHeight="1">
@@ -14819,13 +14807,13 @@
         <v>636</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D156" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="E156" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="E156" t="s" s="2">
-        <v>946</v>
       </c>
     </row>
     <row r="157" ht="13.65" customHeight="1">
@@ -14839,7 +14827,7 @@
         <v>640</v>
       </c>
       <c r="D157" t="s" s="2">
-        <v>779</v>
+        <v>946</v>
       </c>
       <c r="E157" t="s" s="2">
         <v>947</v>
@@ -14887,7 +14875,7 @@
         <v>636</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>640</v>
+        <v>784</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>952</v>
@@ -14904,7 +14892,7 @@
         <v>636</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>640</v>
+        <v>784</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>954</v>
@@ -14918,10 +14906,10 @@
         <v>3</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="C162" t="s" s="2">
-        <v>784</v>
+        <v>646</v>
       </c>
       <c r="D162" t="s" s="2">
         <v>956</v>
@@ -14935,16 +14923,16 @@
         <v>3</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="C163" t="s" s="2">
-        <v>784</v>
+        <v>646</v>
       </c>
       <c r="D163" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="E163" t="s" s="2">
         <v>958</v>
-      </c>
-      <c r="E163" t="s" s="2">
-        <v>959</v>
       </c>
     </row>
     <row r="164" ht="13.65" customHeight="1">
@@ -14958,10 +14946,10 @@
         <v>646</v>
       </c>
       <c r="D164" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="E164" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="E164" t="s" s="2">
-        <v>961</v>
       </c>
     </row>
     <row r="165" ht="13.65" customHeight="1">
@@ -14975,7 +14963,7 @@
         <v>646</v>
       </c>
       <c r="D165" t="s" s="2">
-        <v>647</v>
+        <v>961</v>
       </c>
       <c r="E165" t="s" s="2">
         <v>962</v>
@@ -14989,13 +14977,13 @@
         <v>645</v>
       </c>
       <c r="C166" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D166" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="E166" t="s" s="2">
         <v>963</v>
-      </c>
-      <c r="E166" t="s" s="2">
-        <v>964</v>
       </c>
     </row>
     <row r="167" ht="13.65" customHeight="1">
@@ -15006,13 +14994,13 @@
         <v>645</v>
       </c>
       <c r="C167" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D167" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="E167" t="s" s="2">
         <v>965</v>
-      </c>
-      <c r="E167" t="s" s="2">
-        <v>966</v>
       </c>
     </row>
     <row r="168" ht="13.65" customHeight="1">
@@ -15026,7 +15014,7 @@
         <v>649</v>
       </c>
       <c r="D168" t="s" s="2">
-        <v>650</v>
+        <v>966</v>
       </c>
       <c r="E168" t="s" s="2">
         <v>967</v>
@@ -15040,7 +15028,7 @@
         <v>645</v>
       </c>
       <c r="C169" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D169" t="s" s="2">
         <v>968</v>
@@ -15057,7 +15045,7 @@
         <v>645</v>
       </c>
       <c r="C170" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D170" t="s" s="2">
         <v>970</v>
@@ -15108,7 +15096,7 @@
         <v>645</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>976</v>
@@ -15125,7 +15113,7 @@
         <v>645</v>
       </c>
       <c r="C174" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D174" t="s" s="2">
         <v>978</v>
@@ -15193,13 +15181,13 @@
         <v>645</v>
       </c>
       <c r="C178" t="s" s="2">
-        <v>655</v>
+        <v>800</v>
       </c>
       <c r="D178" t="s" s="2">
+        <v>801</v>
+      </c>
+      <c r="E178" t="s" s="2">
         <v>986</v>
-      </c>
-      <c r="E178" t="s" s="2">
-        <v>987</v>
       </c>
     </row>
     <row r="179" ht="13.65" customHeight="1">
@@ -15210,13 +15198,13 @@
         <v>645</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>655</v>
+        <v>800</v>
       </c>
       <c r="D179" t="s" s="2">
+        <v>987</v>
+      </c>
+      <c r="E179" t="s" s="2">
         <v>988</v>
-      </c>
-      <c r="E179" t="s" s="2">
-        <v>989</v>
       </c>
     </row>
     <row r="180" ht="13.65" customHeight="1">
@@ -15230,7 +15218,7 @@
         <v>800</v>
       </c>
       <c r="D180" t="s" s="2">
-        <v>801</v>
+        <v>989</v>
       </c>
       <c r="E180" t="s" s="2">
         <v>990</v>
@@ -15258,16 +15246,16 @@
         <v>3</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="C182" t="s" s="2">
-        <v>800</v>
+        <v>659</v>
       </c>
       <c r="D182" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="E182" t="s" s="2">
         <v>993</v>
-      </c>
-      <c r="E182" t="s" s="2">
-        <v>994</v>
       </c>
     </row>
     <row r="183" ht="13.65" customHeight="1">
@@ -15275,16 +15263,16 @@
         <v>3</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="C183" t="s" s="2">
-        <v>800</v>
+        <v>659</v>
       </c>
       <c r="D183" t="s" s="2">
+        <v>994</v>
+      </c>
+      <c r="E183" t="s" s="2">
         <v>995</v>
-      </c>
-      <c r="E183" t="s" s="2">
-        <v>996</v>
       </c>
     </row>
     <row r="184" ht="13.65" customHeight="1">
@@ -15298,7 +15286,7 @@
         <v>659</v>
       </c>
       <c r="D184" t="s" s="2">
-        <v>660</v>
+        <v>996</v>
       </c>
       <c r="E184" t="s" s="2">
         <v>997</v>
@@ -15329,7 +15317,7 @@
         <v>658</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="D186" t="s" s="2">
         <v>1000</v>
@@ -15346,13 +15334,13 @@
         <v>658</v>
       </c>
       <c r="C187" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="D187" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="E187" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="E187" t="s" s="2">
-        <v>1003</v>
       </c>
     </row>
     <row r="188" ht="13.65" customHeight="1">
@@ -15366,10 +15354,10 @@
         <v>664</v>
       </c>
       <c r="D188" t="s" s="2">
+        <v>1003</v>
+      </c>
+      <c r="E188" t="s" s="2">
         <v>1004</v>
-      </c>
-      <c r="E188" t="s" s="2">
-        <v>1005</v>
       </c>
     </row>
     <row r="189" ht="13.65" customHeight="1">
@@ -15380,13 +15368,13 @@
         <v>658</v>
       </c>
       <c r="C189" t="s" s="2">
-        <v>664</v>
+        <v>813</v>
       </c>
       <c r="D189" t="s" s="2">
-        <v>667</v>
+        <v>814</v>
       </c>
       <c r="E189" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="190" ht="13.65" customHeight="1">
@@ -15397,13 +15385,13 @@
         <v>658</v>
       </c>
       <c r="C190" t="s" s="2">
-        <v>664</v>
+        <v>813</v>
       </c>
       <c r="D190" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="E190" t="s" s="2">
         <v>1007</v>
-      </c>
-      <c r="E190" t="s" s="2">
-        <v>1008</v>
       </c>
     </row>
     <row r="191" ht="13.65" customHeight="1">
@@ -15417,7 +15405,7 @@
         <v>813</v>
       </c>
       <c r="D191" t="s" s="2">
-        <v>814</v>
+        <v>1008</v>
       </c>
       <c r="E191" t="s" s="2">
         <v>1009</v>
@@ -15431,13 +15419,13 @@
         <v>658</v>
       </c>
       <c r="C192" t="s" s="2">
-        <v>813</v>
+        <v>669</v>
       </c>
       <c r="D192" t="s" s="2">
+        <v>816</v>
+      </c>
+      <c r="E192" t="s" s="2">
         <v>1010</v>
-      </c>
-      <c r="E192" t="s" s="2">
-        <v>1011</v>
       </c>
     </row>
     <row r="193" ht="13.65" customHeight="1">
@@ -15448,13 +15436,13 @@
         <v>658</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>813</v>
+        <v>669</v>
       </c>
       <c r="D193" t="s" s="2">
+        <v>1011</v>
+      </c>
+      <c r="E193" t="s" s="2">
         <v>1012</v>
-      </c>
-      <c r="E193" t="s" s="2">
-        <v>1013</v>
       </c>
     </row>
     <row r="194" ht="13.65" customHeight="1">
@@ -15468,7 +15456,7 @@
         <v>669</v>
       </c>
       <c r="D194" t="s" s="2">
-        <v>816</v>
+        <v>1013</v>
       </c>
       <c r="E194" t="s" s="2">
         <v>1014</v>
@@ -15499,7 +15487,7 @@
         <v>658</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D196" t="s" s="2">
         <v>1017</v>
@@ -15516,7 +15504,7 @@
         <v>658</v>
       </c>
       <c r="C197" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D197" t="s" s="2">
         <v>1019</v>
@@ -15530,16 +15518,16 @@
         <v>3</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="C198" t="s" s="2">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D198" t="s" s="2">
+        <v>679</v>
+      </c>
+      <c r="E198" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="E198" t="s" s="2">
-        <v>1022</v>
       </c>
     </row>
     <row r="199" ht="13.65" customHeight="1">
@@ -15547,16 +15535,16 @@
         <v>3</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="C199" t="s" s="2">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D199" t="s" s="2">
-        <v>1023</v>
+        <v>681</v>
       </c>
       <c r="E199" t="s" s="2">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="200" ht="13.65" customHeight="1">
@@ -15570,10 +15558,10 @@
         <v>678</v>
       </c>
       <c r="D200" t="s" s="2">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="E200" t="s" s="2">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="201" ht="13.65" customHeight="1">
@@ -15587,10 +15575,10 @@
         <v>678</v>
       </c>
       <c r="D201" t="s" s="2">
-        <v>681</v>
+        <v>1024</v>
       </c>
       <c r="E201" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="202" ht="13.65" customHeight="1">
@@ -15601,13 +15589,13 @@
         <v>677</v>
       </c>
       <c r="C202" t="s" s="2">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D202" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E202" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="203" ht="13.65" customHeight="1">
@@ -15618,13 +15606,13 @@
         <v>677</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D203" t="s" s="2">
+        <v>1027</v>
+      </c>
+      <c r="E203" t="s" s="2">
         <v>1028</v>
-      </c>
-      <c r="E203" t="s" s="2">
-        <v>1029</v>
       </c>
     </row>
     <row r="204" ht="13.65" customHeight="1">
@@ -15638,7 +15626,7 @@
         <v>685</v>
       </c>
       <c r="D204" t="s" s="2">
-        <v>686</v>
+        <v>1029</v>
       </c>
       <c r="E204" t="s" s="2">
         <v>1030</v>
@@ -15703,13 +15691,13 @@
         <v>677</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D208" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="E208" t="s" s="2">
         <v>1037</v>
-      </c>
-      <c r="E208" t="s" s="2">
-        <v>1038</v>
       </c>
     </row>
     <row r="209" ht="13.65" customHeight="1">
@@ -15720,13 +15708,13 @@
         <v>677</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D209" t="s" s="2">
-        <v>1039</v>
+        <v>833</v>
       </c>
       <c r="E209" t="s" s="2">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="210" ht="13.65" customHeight="1">
@@ -15740,10 +15728,10 @@
         <v>692</v>
       </c>
       <c r="D210" t="s" s="2">
-        <v>693</v>
+        <v>1039</v>
       </c>
       <c r="E210" t="s" s="2">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="211" ht="13.65" customHeight="1">
@@ -15757,7 +15745,7 @@
         <v>692</v>
       </c>
       <c r="D211" t="s" s="2">
-        <v>835</v>
+        <v>1041</v>
       </c>
       <c r="E211" t="s" s="2">
         <v>1042</v>
@@ -15771,7 +15759,7 @@
         <v>677</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D212" t="s" s="2">
         <v>1043</v>
@@ -15788,13 +15776,13 @@
         <v>677</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D213" t="s" s="2">
+        <v>838</v>
+      </c>
+      <c r="E213" t="s" s="2">
         <v>1045</v>
-      </c>
-      <c r="E213" t="s" s="2">
-        <v>1046</v>
       </c>
     </row>
     <row r="214" ht="13.65" customHeight="1">
@@ -15808,10 +15796,10 @@
         <v>695</v>
       </c>
       <c r="D214" t="s" s="2">
-        <v>1047</v>
+        <v>840</v>
       </c>
       <c r="E214" t="s" s="2">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="215" ht="13.65" customHeight="1">
@@ -15825,10 +15813,10 @@
         <v>695</v>
       </c>
       <c r="D215" t="s" s="2">
-        <v>840</v>
+        <v>1047</v>
       </c>
       <c r="E215" t="s" s="2">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="216" ht="13.65" customHeight="1">
@@ -15842,7 +15830,7 @@
         <v>695</v>
       </c>
       <c r="D216" t="s" s="2">
-        <v>842</v>
+        <v>1049</v>
       </c>
       <c r="E216" t="s" s="2">
         <v>1050</v>
@@ -15856,13 +15844,13 @@
         <v>677</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="D217" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="E217" t="s" s="2">
         <v>1051</v>
-      </c>
-      <c r="E217" t="s" s="2">
-        <v>1052</v>
       </c>
     </row>
     <row r="218" ht="13.65" customHeight="1">
@@ -15873,13 +15861,13 @@
         <v>677</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="D218" t="s" s="2">
-        <v>1053</v>
+        <v>703</v>
       </c>
       <c r="E218" t="s" s="2">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="219" ht="13.65" customHeight="1">
@@ -15893,10 +15881,10 @@
         <v>700</v>
       </c>
       <c r="D219" t="s" s="2">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="E219" t="s" s="2">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="220" ht="13.65" customHeight="1">
@@ -15910,10 +15898,10 @@
         <v>700</v>
       </c>
       <c r="D220" t="s" s="2">
-        <v>703</v>
+        <v>845</v>
       </c>
       <c r="E220" t="s" s="2">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="221" ht="13.65" customHeight="1">
@@ -15924,13 +15912,13 @@
         <v>677</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="D221" t="s" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="E221" t="s" s="2">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="222" ht="13.65" customHeight="1">
@@ -15941,13 +15929,13 @@
         <v>677</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="D222" t="s" s="2">
-        <v>847</v>
+        <v>1056</v>
       </c>
       <c r="E222" t="s" s="2">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="223" ht="13.65" customHeight="1">
@@ -15961,7 +15949,7 @@
         <v>707</v>
       </c>
       <c r="D223" t="s" s="2">
-        <v>708</v>
+        <v>1058</v>
       </c>
       <c r="E223" t="s" s="2">
         <v>1059</v>
@@ -15975,7 +15963,7 @@
         <v>677</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D224" t="s" s="2">
         <v>1060</v>
@@ -15992,13 +15980,13 @@
         <v>677</v>
       </c>
       <c r="C225" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D225" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="E225" t="s" s="2">
         <v>1062</v>
-      </c>
-      <c r="E225" t="s" s="2">
-        <v>1063</v>
       </c>
     </row>
     <row r="226" ht="13.65" customHeight="1">
@@ -16012,10 +16000,10 @@
         <v>710</v>
       </c>
       <c r="D226" t="s" s="2">
-        <v>1064</v>
+        <v>853</v>
       </c>
       <c r="E226" t="s" s="2">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="227" ht="13.65" customHeight="1">
@@ -16029,10 +16017,10 @@
         <v>710</v>
       </c>
       <c r="D227" t="s" s="2">
-        <v>713</v>
+        <v>1064</v>
       </c>
       <c r="E227" t="s" s="2">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="228" ht="13.65" customHeight="1">
@@ -16046,7 +16034,7 @@
         <v>710</v>
       </c>
       <c r="D228" t="s" s="2">
-        <v>855</v>
+        <v>1066</v>
       </c>
       <c r="E228" t="s" s="2">
         <v>1067</v>
@@ -16060,7 +16048,7 @@
         <v>677</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="D229" t="s" s="2">
         <v>1068</v>
@@ -16077,13 +16065,13 @@
         <v>677</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="D230" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="E230" t="s" s="2">
         <v>1070</v>
-      </c>
-      <c r="E230" t="s" s="2">
-        <v>1071</v>
       </c>
     </row>
     <row r="231" ht="13.65" customHeight="1">
@@ -16097,10 +16085,10 @@
         <v>715</v>
       </c>
       <c r="D231" t="s" s="2">
-        <v>1072</v>
+        <v>720</v>
       </c>
       <c r="E231" t="s" s="2">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="232" ht="13.65" customHeight="1">
@@ -16114,10 +16102,10 @@
         <v>715</v>
       </c>
       <c r="D232" t="s" s="2">
-        <v>718</v>
+        <v>1072</v>
       </c>
       <c r="E232" t="s" s="2">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="233" ht="13.65" customHeight="1">
@@ -16131,7 +16119,7 @@
         <v>715</v>
       </c>
       <c r="D233" t="s" s="2">
-        <v>720</v>
+        <v>1074</v>
       </c>
       <c r="E233" t="s" s="2">
         <v>1075</v>
@@ -16145,13 +16133,13 @@
         <v>677</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>715</v>
+        <v>1076</v>
       </c>
       <c r="D234" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E234" t="s" s="2">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="235" ht="13.65" customHeight="1">
@@ -16162,13 +16150,13 @@
         <v>677</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>715</v>
+        <v>1076</v>
       </c>
       <c r="D235" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E235" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="236" ht="13.65" customHeight="1">
@@ -16179,7 +16167,7 @@
         <v>677</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D236" t="s" s="2">
         <v>1081</v>
@@ -16196,13 +16184,13 @@
         <v>677</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="D237" t="s" s="2">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E237" t="s" s="2">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="238" ht="13.65" customHeight="1">
@@ -16213,13 +16201,13 @@
         <v>677</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="D238" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E238" t="s" s="2">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="239" ht="13.65" customHeight="1">
@@ -16230,7 +16218,7 @@
         <v>677</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="D239" t="s" s="2">
         <v>1088</v>
@@ -16247,7 +16235,7 @@
         <v>677</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="D240" t="s" s="2">
         <v>1090</v>
@@ -16264,13 +16252,13 @@
         <v>677</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>1087</v>
+        <v>722</v>
       </c>
       <c r="D241" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="E241" t="s" s="2">
         <v>1092</v>
-      </c>
-      <c r="E241" t="s" s="2">
-        <v>1093</v>
       </c>
     </row>
     <row r="242" ht="13.65" customHeight="1">
@@ -16281,13 +16269,13 @@
         <v>677</v>
       </c>
       <c r="C242" t="s" s="2">
-        <v>1087</v>
+        <v>722</v>
       </c>
       <c r="D242" t="s" s="2">
-        <v>1094</v>
+        <v>725</v>
       </c>
       <c r="E242" t="s" s="2">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="243" ht="13.65" customHeight="1">
@@ -16301,10 +16289,10 @@
         <v>722</v>
       </c>
       <c r="D243" t="s" s="2">
-        <v>723</v>
+        <v>861</v>
       </c>
       <c r="E243" t="s" s="2">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="244" ht="13.65" customHeight="1">
@@ -16312,16 +16300,16 @@
         <v>3</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>677</v>
+        <v>727</v>
       </c>
       <c r="C244" t="s" s="2">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="D244" t="s" s="2">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E244" t="s" s="2">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="245" ht="13.65" customHeight="1">
@@ -16329,16 +16317,16 @@
         <v>3</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>677</v>
+        <v>727</v>
       </c>
       <c r="C245" t="s" s="2">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="D245" t="s" s="2">
-        <v>863</v>
+        <v>1096</v>
       </c>
       <c r="E245" t="s" s="2">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="246" ht="13.65" customHeight="1">
@@ -16352,10 +16340,10 @@
         <v>728</v>
       </c>
       <c r="D246" t="s" s="2">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="E246" t="s" s="2">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="247" ht="13.65" customHeight="1">
@@ -16369,10 +16357,10 @@
         <v>728</v>
       </c>
       <c r="D247" t="s" s="2">
+        <v>1099</v>
+      </c>
+      <c r="E247" t="s" s="2">
         <v>1100</v>
-      </c>
-      <c r="E247" t="s" s="2">
-        <v>1101</v>
       </c>
     </row>
     <row r="248" ht="13.65" customHeight="1">
@@ -16383,13 +16371,13 @@
         <v>727</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="D248" t="s" s="2">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="E248" t="s" s="2">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="249" ht="13.65" customHeight="1">
@@ -16400,13 +16388,13 @@
         <v>727</v>
       </c>
       <c r="C249" t="s" s="2">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="D249" t="s" s="2">
+        <v>1102</v>
+      </c>
+      <c r="E249" t="s" s="2">
         <v>1103</v>
-      </c>
-      <c r="E249" t="s" s="2">
-        <v>1104</v>
       </c>
     </row>
     <row r="250" ht="13.65" customHeight="1">
@@ -16420,7 +16408,7 @@
         <v>735</v>
       </c>
       <c r="D250" t="s" s="2">
-        <v>736</v>
+        <v>1104</v>
       </c>
       <c r="E250" t="s" s="2">
         <v>1105</v>
@@ -16468,7 +16456,7 @@
         <v>727</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D253" t="s" s="2">
         <v>1110</v>
@@ -16485,13 +16473,13 @@
         <v>727</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D254" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="E254" t="s" s="2">
         <v>1112</v>
-      </c>
-      <c r="E254" t="s" s="2">
-        <v>1113</v>
       </c>
     </row>
     <row r="255" ht="13.65" customHeight="1">
@@ -16505,10 +16493,10 @@
         <v>738</v>
       </c>
       <c r="D255" t="s" s="2">
+        <v>1113</v>
+      </c>
+      <c r="E255" t="s" s="2">
         <v>1114</v>
-      </c>
-      <c r="E255" t="s" s="2">
-        <v>1115</v>
       </c>
     </row>
     <row r="256" ht="13.65" customHeight="1">
@@ -16522,7 +16510,7 @@
         <v>738</v>
       </c>
       <c r="D256" t="s" s="2">
-        <v>877</v>
+        <v>1115</v>
       </c>
       <c r="E256" t="s" s="2">
         <v>1116</v>
@@ -16570,13 +16558,13 @@
         <v>727</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="D259" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="E259" t="s" s="2">
         <v>1121</v>
-      </c>
-      <c r="E259" t="s" s="2">
-        <v>1122</v>
       </c>
     </row>
     <row r="260" ht="13.65" customHeight="1">
@@ -16587,13 +16575,13 @@
         <v>727</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="D260" t="s" s="2">
-        <v>1123</v>
+        <v>746</v>
       </c>
       <c r="E260" t="s" s="2">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="261" ht="13.65" customHeight="1">
@@ -16607,10 +16595,10 @@
         <v>743</v>
       </c>
       <c r="D261" t="s" s="2">
-        <v>884</v>
+        <v>1123</v>
       </c>
       <c r="E261" t="s" s="2">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="262" ht="13.65" customHeight="1">
@@ -16624,7 +16612,7 @@
         <v>743</v>
       </c>
       <c r="D262" t="s" s="2">
-        <v>746</v>
+        <v>1125</v>
       </c>
       <c r="E262" t="s" s="2">
         <v>1126</v>
@@ -16641,10 +16629,10 @@
         <v>743</v>
       </c>
       <c r="D263" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="E263" t="s" s="2">
         <v>1127</v>
-      </c>
-      <c r="E263" t="s" s="2">
-        <v>1128</v>
       </c>
     </row>
     <row r="264" ht="13.65" customHeight="1">
@@ -16655,7 +16643,7 @@
         <v>727</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>743</v>
+        <v>1128</v>
       </c>
       <c r="D264" t="s" s="2">
         <v>1129</v>
@@ -16672,13 +16660,13 @@
         <v>727</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>743</v>
+        <v>1128</v>
       </c>
       <c r="D265" t="s" s="2">
-        <v>889</v>
+        <v>1131</v>
       </c>
       <c r="E265" t="s" s="2">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="266" ht="13.65" customHeight="1">
@@ -16689,7 +16677,7 @@
         <v>727</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="D266" t="s" s="2">
         <v>1133</v>
@@ -16706,13 +16694,13 @@
         <v>727</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>1132</v>
+        <v>748</v>
       </c>
       <c r="D267" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="E267" t="s" s="2">
         <v>1135</v>
-      </c>
-      <c r="E267" t="s" s="2">
-        <v>1136</v>
       </c>
     </row>
     <row r="268" ht="13.65" customHeight="1">
@@ -16723,13 +16711,13 @@
         <v>727</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>1132</v>
+        <v>748</v>
       </c>
       <c r="D268" t="s" s="2">
-        <v>1137</v>
+        <v>888</v>
       </c>
       <c r="E268" t="s" s="2">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="269" ht="13.65" customHeight="1">
@@ -16743,10 +16731,10 @@
         <v>748</v>
       </c>
       <c r="D269" t="s" s="2">
-        <v>749</v>
+        <v>1137</v>
       </c>
       <c r="E269" t="s" s="2">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="270" ht="13.65" customHeight="1">
@@ -16760,10 +16748,10 @@
         <v>748</v>
       </c>
       <c r="D270" t="s" s="2">
-        <v>892</v>
+        <v>751</v>
       </c>
       <c r="E270" t="s" s="2">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="271" ht="13.65" customHeight="1">
@@ -16777,10 +16765,10 @@
         <v>748</v>
       </c>
       <c r="D271" t="s" s="2">
+        <v>1140</v>
+      </c>
+      <c r="E271" t="s" s="2">
         <v>1141</v>
-      </c>
-      <c r="E271" t="s" s="2">
-        <v>1142</v>
       </c>
     </row>
     <row r="272" ht="13.65" customHeight="1">
@@ -16794,10 +16782,10 @@
         <v>748</v>
       </c>
       <c r="D272" t="s" s="2">
-        <v>751</v>
+        <v>895</v>
       </c>
       <c r="E272" t="s" s="2">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="273" ht="13.65" customHeight="1">
@@ -16811,10 +16799,10 @@
         <v>748</v>
       </c>
       <c r="D273" t="s" s="2">
+        <v>1143</v>
+      </c>
+      <c r="E273" t="s" s="2">
         <v>1144</v>
-      </c>
-      <c r="E273" t="s" s="2">
-        <v>1145</v>
       </c>
     </row>
     <row r="274" ht="13.65" customHeight="1">
@@ -16828,7 +16816,7 @@
         <v>748</v>
       </c>
       <c r="D274" t="s" s="2">
-        <v>899</v>
+        <v>1145</v>
       </c>
       <c r="E274" t="s" s="2">
         <v>1146</v>
@@ -16842,13 +16830,13 @@
         <v>727</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D275" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="E275" t="s" s="2">
         <v>1147</v>
-      </c>
-      <c r="E275" t="s" s="2">
-        <v>1148</v>
       </c>
     </row>
     <row r="276" ht="13.65" customHeight="1">
@@ -16859,13 +16847,13 @@
         <v>727</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D276" t="s" s="2">
-        <v>1149</v>
+        <v>756</v>
       </c>
       <c r="E276" t="s" s="2">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="277" ht="13.65" customHeight="1">
@@ -16879,10 +16867,10 @@
         <v>753</v>
       </c>
       <c r="D277" t="s" s="2">
-        <v>754</v>
+        <v>899</v>
       </c>
       <c r="E277" t="s" s="2">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="278" ht="13.65" customHeight="1">
@@ -16896,10 +16884,10 @@
         <v>753</v>
       </c>
       <c r="D278" t="s" s="2">
-        <v>756</v>
+        <v>901</v>
       </c>
       <c r="E278" t="s" s="2">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="279" ht="13.65" customHeight="1">
@@ -16913,10 +16901,10 @@
         <v>753</v>
       </c>
       <c r="D279" t="s" s="2">
-        <v>903</v>
+        <v>1151</v>
       </c>
       <c r="E279" t="s" s="2">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="280" ht="13.65" customHeight="1">
@@ -16930,10 +16918,10 @@
         <v>753</v>
       </c>
       <c r="D280" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E280" t="s" s="2">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="281" ht="13.65" customHeight="1">
@@ -16947,10 +16935,10 @@
         <v>753</v>
       </c>
       <c r="D281" t="s" s="2">
-        <v>1155</v>
+        <v>905</v>
       </c>
       <c r="E281" t="s" s="2">
-        <v>1156</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="282" ht="13.65" customHeight="1">
@@ -16961,13 +16949,13 @@
         <v>727</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="D282" t="s" s="2">
-        <v>907</v>
+        <v>761</v>
       </c>
       <c r="E282" t="s" s="2">
-        <v>1157</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="283" ht="13.65" customHeight="1">
@@ -16978,13 +16966,13 @@
         <v>727</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="D283" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E283" t="s" s="2">
-        <v>1158</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="284" ht="13.65" customHeight="1">
@@ -16998,10 +16986,10 @@
         <v>760</v>
       </c>
       <c r="D284" t="s" s="2">
-        <v>761</v>
+        <v>910</v>
       </c>
       <c r="E284" t="s" s="2">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="285" ht="13.65" customHeight="1">
@@ -17015,10 +17003,10 @@
         <v>760</v>
       </c>
       <c r="D285" t="s" s="2">
-        <v>912</v>
+        <v>1158</v>
       </c>
       <c r="E285" t="s" s="2">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="286" ht="13.65" customHeight="1">
@@ -17029,10 +17017,10 @@
         <v>727</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>760</v>
+        <v>912</v>
       </c>
       <c r="D286" t="s" s="2">
-        <v>914</v>
+        <v>1160</v>
       </c>
       <c r="E286" t="s" s="2">
         <v>1161</v>
@@ -17046,13 +17034,13 @@
         <v>727</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>760</v>
+        <v>915</v>
       </c>
       <c r="D287" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="E287" t="s" s="2">
         <v>1162</v>
-      </c>
-      <c r="E287" t="s" s="2">
-        <v>1163</v>
       </c>
     </row>
     <row r="288" ht="13.65" customHeight="1">
@@ -17063,13 +17051,13 @@
         <v>727</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D288" t="s" s="2">
+        <v>1163</v>
+      </c>
+      <c r="E288" t="s" s="2">
         <v>1164</v>
-      </c>
-      <c r="E288" t="s" s="2">
-        <v>1165</v>
       </c>
     </row>
     <row r="289" ht="13.65" customHeight="1">
@@ -17080,10 +17068,10 @@
         <v>727</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D289" t="s" s="2">
-        <v>920</v>
+        <v>1165</v>
       </c>
       <c r="E289" t="s" s="2">
         <v>1166</v>
@@ -17097,7 +17085,7 @@
         <v>727</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D290" t="s" s="2">
         <v>1167</v>
@@ -17114,13 +17102,13 @@
         <v>727</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>919</v>
+        <v>763</v>
       </c>
       <c r="D291" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="E291" t="s" s="2">
         <v>1169</v>
-      </c>
-      <c r="E291" t="s" s="2">
-        <v>1170</v>
       </c>
     </row>
     <row r="292" ht="13.65" customHeight="1">
@@ -17131,13 +17119,13 @@
         <v>727</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>919</v>
+        <v>763</v>
       </c>
       <c r="D292" t="s" s="2">
+        <v>1170</v>
+      </c>
+      <c r="E292" t="s" s="2">
         <v>1171</v>
-      </c>
-      <c r="E292" t="s" s="2">
-        <v>1172</v>
       </c>
     </row>
     <row r="293" ht="13.65" customHeight="1">
@@ -17151,10 +17139,10 @@
         <v>763</v>
       </c>
       <c r="D293" t="s" s="2">
-        <v>764</v>
+        <v>922</v>
       </c>
       <c r="E293" t="s" s="2">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="294" ht="13.65" customHeight="1">
@@ -17168,10 +17156,10 @@
         <v>763</v>
       </c>
       <c r="D294" t="s" s="2">
+        <v>1173</v>
+      </c>
+      <c r="E294" t="s" s="2">
         <v>1174</v>
-      </c>
-      <c r="E294" t="s" s="2">
-        <v>1175</v>
       </c>
     </row>
     <row r="295" ht="13.65" customHeight="1">
@@ -17185,7 +17173,7 @@
         <v>763</v>
       </c>
       <c r="D295" t="s" s="2">
-        <v>926</v>
+        <v>1175</v>
       </c>
       <c r="E295" t="s" s="2">
         <v>1176</v>
@@ -17199,13 +17187,13 @@
         <v>727</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D296" t="s" s="2">
+        <v>769</v>
+      </c>
+      <c r="E296" t="s" s="2">
         <v>1177</v>
-      </c>
-      <c r="E296" t="s" s="2">
-        <v>1178</v>
       </c>
     </row>
     <row r="297" ht="13.65" customHeight="1">
@@ -17216,13 +17204,13 @@
         <v>727</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D297" t="s" s="2">
+        <v>1178</v>
+      </c>
+      <c r="E297" t="s" s="2">
         <v>1179</v>
-      </c>
-      <c r="E297" t="s" s="2">
-        <v>1180</v>
       </c>
     </row>
     <row r="298" ht="13.65" customHeight="1">
@@ -17236,10 +17224,10 @@
         <v>768</v>
       </c>
       <c r="D298" t="s" s="2">
-        <v>769</v>
+        <v>927</v>
       </c>
       <c r="E298" t="s" s="2">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="299" ht="13.65" customHeight="1">
@@ -17253,10 +17241,10 @@
         <v>768</v>
       </c>
       <c r="D299" t="s" s="2">
+        <v>1181</v>
+      </c>
+      <c r="E299" t="s" s="2">
         <v>1182</v>
-      </c>
-      <c r="E299" t="s" s="2">
-        <v>1183</v>
       </c>
     </row>
     <row r="300" ht="13.65" customHeight="1">
@@ -17270,7 +17258,7 @@
         <v>768</v>
       </c>
       <c r="D300" t="s" s="2">
-        <v>931</v>
+        <v>1183</v>
       </c>
       <c r="E300" t="s" s="2">
         <v>1184</v>
@@ -17301,13 +17289,13 @@
         <v>727</v>
       </c>
       <c r="C302" t="s" s="2">
-        <v>768</v>
+        <v>931</v>
       </c>
       <c r="D302" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="E302" t="s" s="2">
         <v>1187</v>
-      </c>
-      <c r="E302" t="s" s="2">
-        <v>1188</v>
       </c>
     </row>
     <row r="303" ht="13.65" customHeight="1">
@@ -17318,13 +17306,13 @@
         <v>727</v>
       </c>
       <c r="C303" t="s" s="2">
-        <v>768</v>
+        <v>931</v>
       </c>
       <c r="D303" t="s" s="2">
+        <v>1188</v>
+      </c>
+      <c r="E303" t="s" s="2">
         <v>1189</v>
-      </c>
-      <c r="E303" t="s" s="2">
-        <v>1190</v>
       </c>
     </row>
     <row r="304" ht="13.65" customHeight="1">
@@ -17335,13 +17323,13 @@
         <v>727</v>
       </c>
       <c r="C304" t="s" s="2">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D304" t="s" s="2">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E304" t="s" s="2">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="305" ht="13.65" customHeight="1">
@@ -17352,13 +17340,13 @@
         <v>727</v>
       </c>
       <c r="C305" t="s" s="2">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D305" t="s" s="2">
+        <v>1191</v>
+      </c>
+      <c r="E305" t="s" s="2">
         <v>1192</v>
-      </c>
-      <c r="E305" t="s" s="2">
-        <v>1193</v>
       </c>
     </row>
     <row r="306" ht="13.65" customHeight="1">
@@ -17369,10 +17357,10 @@
         <v>727</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D306" t="s" s="2">
-        <v>938</v>
+        <v>1193</v>
       </c>
       <c r="E306" t="s" s="2">
         <v>1194</v>
@@ -17380,36 +17368,36 @@
     </row>
     <row r="307" ht="13.65" customHeight="1">
       <c r="A307" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>727</v>
+        <v>636</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>935</v>
+        <v>637</v>
       </c>
       <c r="D307" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="E307" t="s" s="2">
         <v>1195</v>
-      </c>
-      <c r="E307" t="s" s="2">
-        <v>1196</v>
       </c>
     </row>
     <row r="308" ht="13.65" customHeight="1">
       <c r="A308" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>727</v>
+        <v>636</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>935</v>
+        <v>637</v>
       </c>
       <c r="D308" t="s" s="2">
-        <v>1197</v>
+        <v>937</v>
       </c>
       <c r="E308" t="s" s="2">
-        <v>1198</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="309" ht="13.65" customHeight="1">
@@ -17423,10 +17411,10 @@
         <v>637</v>
       </c>
       <c r="D309" t="s" s="2">
-        <v>773</v>
+        <v>939</v>
       </c>
       <c r="E309" t="s" s="2">
-        <v>1199</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="310" ht="13.65" customHeight="1">
@@ -17443,7 +17431,7 @@
         <v>941</v>
       </c>
       <c r="E310" t="s" s="2">
-        <v>1200</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="311" ht="13.65" customHeight="1">
@@ -17454,13 +17442,13 @@
         <v>636</v>
       </c>
       <c r="C311" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D311" t="s" s="2">
-        <v>943</v>
+        <v>779</v>
       </c>
       <c r="E311" t="s" s="2">
-        <v>1201</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="312" ht="13.65" customHeight="1">
@@ -17471,13 +17459,13 @@
         <v>636</v>
       </c>
       <c r="C312" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="D312" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E312" t="s" s="2">
-        <v>1202</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="313" ht="13.65" customHeight="1">
@@ -17491,10 +17479,10 @@
         <v>640</v>
       </c>
       <c r="D313" t="s" s="2">
-        <v>779</v>
+        <v>946</v>
       </c>
       <c r="E313" t="s" s="2">
-        <v>1203</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="314" ht="13.65" customHeight="1">
@@ -17511,7 +17499,7 @@
         <v>948</v>
       </c>
       <c r="E314" t="s" s="2">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="315" ht="13.65" customHeight="1">
@@ -17528,7 +17516,7 @@
         <v>950</v>
       </c>
       <c r="E315" t="s" s="2">
-        <v>1205</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="316" ht="13.65" customHeight="1">
@@ -17542,10 +17530,10 @@
         <v>640</v>
       </c>
       <c r="D316" t="s" s="2">
-        <v>952</v>
+        <v>1204</v>
       </c>
       <c r="E316" t="s" s="2">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="317" ht="13.65" customHeight="1">
@@ -17556,13 +17544,13 @@
         <v>636</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>640</v>
+        <v>784</v>
       </c>
       <c r="D317" t="s" s="2">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E317" t="s" s="2">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="318" ht="13.65" customHeight="1">
@@ -17573,13 +17561,13 @@
         <v>636</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>640</v>
+        <v>784</v>
       </c>
       <c r="D318" t="s" s="2">
-        <v>1208</v>
+        <v>954</v>
       </c>
       <c r="E318" t="s" s="2">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="319" ht="13.65" customHeight="1">
@@ -17593,10 +17581,10 @@
         <v>784</v>
       </c>
       <c r="D319" t="s" s="2">
-        <v>956</v>
+        <v>1208</v>
       </c>
       <c r="E319" t="s" s="2">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="320" ht="13.65" customHeight="1">
@@ -17610,7 +17598,7 @@
         <v>784</v>
       </c>
       <c r="D320" t="s" s="2">
-        <v>958</v>
+        <v>1210</v>
       </c>
       <c r="E320" t="s" s="2">
         <v>1211</v>
@@ -17621,16 +17609,16 @@
         <v>4</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>784</v>
+        <v>646</v>
       </c>
       <c r="D321" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="E321" t="s" s="2">
         <v>1212</v>
-      </c>
-      <c r="E321" t="s" s="2">
-        <v>1213</v>
       </c>
     </row>
     <row r="322" ht="13.65" customHeight="1">
@@ -17638,16 +17626,16 @@
         <v>4</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>784</v>
+        <v>646</v>
       </c>
       <c r="D322" t="s" s="2">
-        <v>1214</v>
+        <v>647</v>
       </c>
       <c r="E322" t="s" s="2">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="323" ht="13.65" customHeight="1">
@@ -17661,10 +17649,10 @@
         <v>646</v>
       </c>
       <c r="D323" t="s" s="2">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E323" t="s" s="2">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="324" ht="13.65" customHeight="1">
@@ -17678,10 +17666,10 @@
         <v>646</v>
       </c>
       <c r="D324" t="s" s="2">
-        <v>647</v>
+        <v>961</v>
       </c>
       <c r="E324" t="s" s="2">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="325" ht="13.65" customHeight="1">
@@ -17692,13 +17680,13 @@
         <v>645</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D325" t="s" s="2">
-        <v>963</v>
+        <v>650</v>
       </c>
       <c r="E325" t="s" s="2">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="326" ht="13.65" customHeight="1">
@@ -17709,13 +17697,13 @@
         <v>645</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="D326" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E326" t="s" s="2">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="327" ht="13.65" customHeight="1">
@@ -17729,10 +17717,10 @@
         <v>649</v>
       </c>
       <c r="D327" t="s" s="2">
-        <v>650</v>
+        <v>966</v>
       </c>
       <c r="E327" t="s" s="2">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="328" ht="13.65" customHeight="1">
@@ -17743,13 +17731,13 @@
         <v>645</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D328" t="s" s="2">
         <v>968</v>
       </c>
       <c r="E328" t="s" s="2">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="329" ht="13.65" customHeight="1">
@@ -17760,13 +17748,13 @@
         <v>645</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="D329" t="s" s="2">
         <v>970</v>
       </c>
       <c r="E329" t="s" s="2">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="330" ht="13.65" customHeight="1">
@@ -17783,7 +17771,7 @@
         <v>972</v>
       </c>
       <c r="E330" t="s" s="2">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="331" ht="13.65" customHeight="1">
@@ -17800,7 +17788,7 @@
         <v>974</v>
       </c>
       <c r="E331" t="s" s="2">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="332" ht="13.65" customHeight="1">
@@ -17811,13 +17799,13 @@
         <v>645</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D332" t="s" s="2">
         <v>976</v>
       </c>
       <c r="E332" t="s" s="2">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="333" ht="13.65" customHeight="1">
@@ -17828,13 +17816,13 @@
         <v>645</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D333" t="s" s="2">
         <v>978</v>
       </c>
       <c r="E333" t="s" s="2">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="334" ht="13.65" customHeight="1">
@@ -17851,7 +17839,7 @@
         <v>980</v>
       </c>
       <c r="E334" t="s" s="2">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="335" ht="13.65" customHeight="1">
@@ -17868,7 +17856,7 @@
         <v>982</v>
       </c>
       <c r="E335" t="s" s="2">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="336" ht="13.65" customHeight="1">
@@ -17885,7 +17873,7 @@
         <v>984</v>
       </c>
       <c r="E336" t="s" s="2">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="337" ht="13.65" customHeight="1">
@@ -17896,13 +17884,13 @@
         <v>645</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>655</v>
+        <v>800</v>
       </c>
       <c r="D337" t="s" s="2">
-        <v>986</v>
+        <v>801</v>
       </c>
       <c r="E337" t="s" s="2">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="338" ht="13.65" customHeight="1">
@@ -17913,13 +17901,13 @@
         <v>645</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>655</v>
+        <v>800</v>
       </c>
       <c r="D338" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E338" t="s" s="2">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="339" ht="13.65" customHeight="1">
@@ -17933,10 +17921,10 @@
         <v>800</v>
       </c>
       <c r="D339" t="s" s="2">
-        <v>801</v>
+        <v>989</v>
       </c>
       <c r="E339" t="s" s="2">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="340" ht="13.65" customHeight="1">
@@ -17953,7 +17941,7 @@
         <v>991</v>
       </c>
       <c r="E340" t="s" s="2">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="341" ht="13.65" customHeight="1">
@@ -17961,16 +17949,16 @@
         <v>4</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>800</v>
+        <v>659</v>
       </c>
       <c r="D341" t="s" s="2">
-        <v>993</v>
+        <v>660</v>
       </c>
       <c r="E341" t="s" s="2">
-        <v>1234</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="342" ht="13.65" customHeight="1">
@@ -17978,16 +17966,16 @@
         <v>4</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>800</v>
+        <v>659</v>
       </c>
       <c r="D342" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E342" t="s" s="2">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="343" ht="13.65" customHeight="1">
@@ -18001,10 +17989,10 @@
         <v>659</v>
       </c>
       <c r="D343" t="s" s="2">
-        <v>660</v>
+        <v>996</v>
       </c>
       <c r="E343" t="s" s="2">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="344" ht="13.65" customHeight="1">
@@ -18021,7 +18009,7 @@
         <v>998</v>
       </c>
       <c r="E344" t="s" s="2">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="345" ht="13.65" customHeight="1">
@@ -18032,13 +18020,13 @@
         <v>658</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="D345" t="s" s="2">
-        <v>1000</v>
+        <v>1236</v>
       </c>
       <c r="E345" t="s" s="2">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="346" ht="13.65" customHeight="1">
@@ -18049,13 +18037,13 @@
         <v>658</v>
       </c>
       <c r="C346" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="D346" t="s" s="2">
-        <v>1002</v>
+        <v>667</v>
       </c>
       <c r="E346" t="s" s="2">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="347" ht="13.65" customHeight="1">
@@ -18069,10 +18057,10 @@
         <v>664</v>
       </c>
       <c r="D347" t="s" s="2">
-        <v>1240</v>
+        <v>1003</v>
       </c>
       <c r="E347" t="s" s="2">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="348" ht="13.65" customHeight="1">
@@ -18083,13 +18071,13 @@
         <v>658</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>664</v>
+        <v>813</v>
       </c>
       <c r="D348" t="s" s="2">
-        <v>667</v>
+        <v>814</v>
       </c>
       <c r="E348" t="s" s="2">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="349" ht="13.65" customHeight="1">
@@ -18100,13 +18088,13 @@
         <v>658</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>664</v>
+        <v>813</v>
       </c>
       <c r="D349" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E349" t="s" s="2">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="350" ht="13.65" customHeight="1">
@@ -18120,10 +18108,10 @@
         <v>813</v>
       </c>
       <c r="D350" t="s" s="2">
-        <v>814</v>
+        <v>1008</v>
       </c>
       <c r="E350" t="s" s="2">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="351" ht="13.65" customHeight="1">
@@ -18137,10 +18125,10 @@
         <v>813</v>
       </c>
       <c r="D351" t="s" s="2">
-        <v>1010</v>
+        <v>1243</v>
       </c>
       <c r="E351" t="s" s="2">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="352" ht="13.65" customHeight="1">
@@ -18151,13 +18139,13 @@
         <v>658</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>813</v>
+        <v>669</v>
       </c>
       <c r="D352" t="s" s="2">
-        <v>1012</v>
+        <v>816</v>
       </c>
       <c r="E352" t="s" s="2">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="353" ht="13.65" customHeight="1">
@@ -18168,13 +18156,13 @@
         <v>658</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>813</v>
+        <v>669</v>
       </c>
       <c r="D353" t="s" s="2">
-        <v>1247</v>
+        <v>1011</v>
       </c>
       <c r="E353" t="s" s="2">
-        <v>1248</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="354" ht="13.65" customHeight="1">
@@ -18188,10 +18176,10 @@
         <v>669</v>
       </c>
       <c r="D354" t="s" s="2">
-        <v>816</v>
+        <v>1013</v>
       </c>
       <c r="E354" t="s" s="2">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="355" ht="13.65" customHeight="1">
@@ -18208,7 +18196,7 @@
         <v>1015</v>
       </c>
       <c r="E355" t="s" s="2">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="356" ht="13.65" customHeight="1">
@@ -18219,13 +18207,13 @@
         <v>658</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D356" t="s" s="2">
         <v>1017</v>
       </c>
       <c r="E356" t="s" s="2">
-        <v>1251</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="357" ht="13.65" customHeight="1">
@@ -18236,13 +18224,13 @@
         <v>658</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="D357" t="s" s="2">
         <v>1019</v>
       </c>
       <c r="E357" t="s" s="2">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="358" ht="13.65" customHeight="1">
@@ -18256,10 +18244,10 @@
         <v>674</v>
       </c>
       <c r="D358" t="s" s="2">
-        <v>1021</v>
+        <v>1251</v>
       </c>
       <c r="E358" t="s" s="2">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="359" ht="13.65" customHeight="1">
@@ -18267,16 +18255,16 @@
         <v>4</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D359" t="s" s="2">
-        <v>1023</v>
+        <v>679</v>
       </c>
       <c r="E359" t="s" s="2">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="360" ht="13.65" customHeight="1">
@@ -18284,16 +18272,16 @@
         <v>4</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D360" t="s" s="2">
-        <v>1255</v>
+        <v>681</v>
       </c>
       <c r="E360" t="s" s="2">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="361" ht="13.65" customHeight="1">
@@ -18307,10 +18295,10 @@
         <v>678</v>
       </c>
       <c r="D361" t="s" s="2">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="E361" t="s" s="2">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="362" ht="13.65" customHeight="1">
@@ -18324,10 +18312,10 @@
         <v>678</v>
       </c>
       <c r="D362" t="s" s="2">
-        <v>681</v>
+        <v>1024</v>
       </c>
       <c r="E362" t="s" s="2">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="363" ht="13.65" customHeight="1">
@@ -18338,13 +18326,13 @@
         <v>677</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D363" t="s" s="2">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E363" t="s" s="2">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="364" ht="13.65" customHeight="1">
@@ -18355,13 +18343,13 @@
         <v>677</v>
       </c>
       <c r="C364" t="s" s="2">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="D364" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E364" t="s" s="2">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="365" ht="13.65" customHeight="1">
@@ -18375,10 +18363,10 @@
         <v>685</v>
       </c>
       <c r="D365" t="s" s="2">
-        <v>686</v>
+        <v>1029</v>
       </c>
       <c r="E365" t="s" s="2">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="366" ht="13.65" customHeight="1">
@@ -18395,7 +18383,7 @@
         <v>1031</v>
       </c>
       <c r="E366" t="s" s="2">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="367" ht="13.65" customHeight="1">
@@ -18412,7 +18400,7 @@
         <v>1033</v>
       </c>
       <c r="E367" t="s" s="2">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="368" ht="13.65" customHeight="1">
@@ -18429,7 +18417,7 @@
         <v>1035</v>
       </c>
       <c r="E368" t="s" s="2">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="369" ht="13.65" customHeight="1">
@@ -18440,13 +18428,13 @@
         <v>677</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D369" t="s" s="2">
-        <v>1037</v>
+        <v>693</v>
       </c>
       <c r="E369" t="s" s="2">
-        <v>1265</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="370" ht="13.65" customHeight="1">
@@ -18457,13 +18445,13 @@
         <v>677</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D370" t="s" s="2">
-        <v>1039</v>
+        <v>833</v>
       </c>
       <c r="E370" t="s" s="2">
-        <v>1266</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="371" ht="13.65" customHeight="1">
@@ -18477,10 +18465,10 @@
         <v>692</v>
       </c>
       <c r="D371" t="s" s="2">
-        <v>693</v>
+        <v>1039</v>
       </c>
       <c r="E371" t="s" s="2">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="372" ht="13.65" customHeight="1">
@@ -18494,10 +18482,10 @@
         <v>692</v>
       </c>
       <c r="D372" t="s" s="2">
-        <v>835</v>
+        <v>1041</v>
       </c>
       <c r="E372" t="s" s="2">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="373" ht="13.65" customHeight="1">
@@ -18511,10 +18499,10 @@
         <v>692</v>
       </c>
       <c r="D373" t="s" s="2">
-        <v>1043</v>
+        <v>1267</v>
       </c>
       <c r="E373" t="s" s="2">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="374" ht="13.65" customHeight="1">
@@ -18525,13 +18513,13 @@
         <v>677</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D374" t="s" s="2">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E374" t="s" s="2">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="375" ht="13.65" customHeight="1">
@@ -18542,13 +18530,13 @@
         <v>677</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="D375" t="s" s="2">
-        <v>1271</v>
+        <v>838</v>
       </c>
       <c r="E375" t="s" s="2">
-        <v>1272</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="376" ht="13.65" customHeight="1">
@@ -18562,10 +18550,10 @@
         <v>695</v>
       </c>
       <c r="D376" t="s" s="2">
-        <v>1047</v>
+        <v>840</v>
       </c>
       <c r="E376" t="s" s="2">
-        <v>1273</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="377" ht="13.65" customHeight="1">
@@ -18579,10 +18567,10 @@
         <v>695</v>
       </c>
       <c r="D377" t="s" s="2">
-        <v>840</v>
+        <v>1047</v>
       </c>
       <c r="E377" t="s" s="2">
-        <v>1274</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="378" ht="13.65" customHeight="1">
@@ -18596,10 +18584,10 @@
         <v>695</v>
       </c>
       <c r="D378" t="s" s="2">
-        <v>842</v>
+        <v>1049</v>
       </c>
       <c r="E378" t="s" s="2">
-        <v>1275</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="379" ht="13.65" customHeight="1">
@@ -18610,13 +18598,13 @@
         <v>677</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="D379" t="s" s="2">
-        <v>1051</v>
+        <v>701</v>
       </c>
       <c r="E379" t="s" s="2">
-        <v>1276</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="380" ht="13.65" customHeight="1">
@@ -18627,13 +18615,13 @@
         <v>677</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="D380" t="s" s="2">
-        <v>1053</v>
+        <v>703</v>
       </c>
       <c r="E380" t="s" s="2">
-        <v>1277</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="381" ht="13.65" customHeight="1">
@@ -18647,10 +18635,10 @@
         <v>700</v>
       </c>
       <c r="D381" t="s" s="2">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="E381" t="s" s="2">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="382" ht="13.65" customHeight="1">
@@ -18664,10 +18652,10 @@
         <v>700</v>
       </c>
       <c r="D382" t="s" s="2">
-        <v>703</v>
+        <v>1277</v>
       </c>
       <c r="E382" t="s" s="2">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="383" ht="13.65" customHeight="1">
@@ -18678,13 +18666,13 @@
         <v>677</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="D383" t="s" s="2">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="E383" t="s" s="2">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="384" ht="13.65" customHeight="1">
@@ -18695,13 +18683,13 @@
         <v>677</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="D384" t="s" s="2">
-        <v>1281</v>
+        <v>1056</v>
       </c>
       <c r="E384" t="s" s="2">
-        <v>1282</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="385" ht="13.65" customHeight="1">
@@ -18715,10 +18703,10 @@
         <v>707</v>
       </c>
       <c r="D385" t="s" s="2">
-        <v>708</v>
+        <v>1058</v>
       </c>
       <c r="E385" t="s" s="2">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="386" ht="13.65" customHeight="1">
@@ -18732,10 +18720,10 @@
         <v>707</v>
       </c>
       <c r="D386" t="s" s="2">
-        <v>1060</v>
+        <v>1282</v>
       </c>
       <c r="E386" t="s" s="2">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="387" ht="13.65" customHeight="1">
@@ -18746,13 +18734,13 @@
         <v>677</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D387" t="s" s="2">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="E387" t="s" s="2">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="388" ht="13.65" customHeight="1">
@@ -18763,13 +18751,13 @@
         <v>677</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="D388" t="s" s="2">
-        <v>1286</v>
+        <v>713</v>
       </c>
       <c r="E388" t="s" s="2">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="389" ht="13.65" customHeight="1">
@@ -18783,10 +18771,10 @@
         <v>710</v>
       </c>
       <c r="D389" t="s" s="2">
-        <v>1064</v>
+        <v>853</v>
       </c>
       <c r="E389" t="s" s="2">
-        <v>1288</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="390" ht="13.65" customHeight="1">
@@ -18800,10 +18788,10 @@
         <v>710</v>
       </c>
       <c r="D390" t="s" s="2">
-        <v>713</v>
+        <v>1064</v>
       </c>
       <c r="E390" t="s" s="2">
-        <v>1289</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="391" ht="13.65" customHeight="1">
@@ -18817,10 +18805,10 @@
         <v>710</v>
       </c>
       <c r="D391" t="s" s="2">
-        <v>855</v>
+        <v>1066</v>
       </c>
       <c r="E391" t="s" s="2">
-        <v>1290</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="392" ht="13.65" customHeight="1">
@@ -18831,13 +18819,13 @@
         <v>677</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="D392" t="s" s="2">
         <v>1068</v>
       </c>
       <c r="E392" t="s" s="2">
-        <v>1291</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="393" ht="13.65" customHeight="1">
@@ -18848,13 +18836,13 @@
         <v>677</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="D393" t="s" s="2">
-        <v>1070</v>
+        <v>718</v>
       </c>
       <c r="E393" t="s" s="2">
-        <v>1292</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="394" ht="13.65" customHeight="1">
@@ -18868,10 +18856,10 @@
         <v>715</v>
       </c>
       <c r="D394" t="s" s="2">
-        <v>1072</v>
+        <v>720</v>
       </c>
       <c r="E394" t="s" s="2">
-        <v>1293</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="395" ht="13.65" customHeight="1">
@@ -18885,10 +18873,10 @@
         <v>715</v>
       </c>
       <c r="D395" t="s" s="2">
-        <v>718</v>
+        <v>1072</v>
       </c>
       <c r="E395" t="s" s="2">
-        <v>1294</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="396" ht="13.65" customHeight="1">
@@ -18902,10 +18890,10 @@
         <v>715</v>
       </c>
       <c r="D396" t="s" s="2">
-        <v>720</v>
+        <v>1074</v>
       </c>
       <c r="E396" t="s" s="2">
-        <v>1295</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="397" ht="13.65" customHeight="1">
@@ -18916,13 +18904,13 @@
         <v>677</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>715</v>
+        <v>1076</v>
       </c>
       <c r="D397" t="s" s="2">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E397" t="s" s="2">
-        <v>1296</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="398" ht="13.65" customHeight="1">
@@ -18933,13 +18921,13 @@
         <v>677</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>715</v>
+        <v>1076</v>
       </c>
       <c r="D398" t="s" s="2">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="E398" t="s" s="2">
-        <v>1297</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="399" ht="13.65" customHeight="1">
@@ -18950,13 +18938,13 @@
         <v>677</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="D399" t="s" s="2">
         <v>1081</v>
       </c>
       <c r="E399" t="s" s="2">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="400" ht="13.65" customHeight="1">
@@ -18967,13 +18955,13 @@
         <v>677</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="D400" t="s" s="2">
-        <v>1083</v>
+        <v>1297</v>
       </c>
       <c r="E400" t="s" s="2">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="401" ht="13.65" customHeight="1">
@@ -18984,13 +18972,13 @@
         <v>677</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="D401" t="s" s="2">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E401" t="s" s="2">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="402" ht="13.65" customHeight="1">
@@ -19001,13 +18989,13 @@
         <v>677</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="D402" t="s" s="2">
-        <v>1301</v>
+        <v>1088</v>
       </c>
       <c r="E402" t="s" s="2">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="403" ht="13.65" customHeight="1">
@@ -19018,13 +19006,13 @@
         <v>677</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="D403" t="s" s="2">
         <v>1090</v>
       </c>
       <c r="E403" t="s" s="2">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="404" ht="13.65" customHeight="1">
@@ -19035,13 +19023,13 @@
         <v>677</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1087</v>
+        <v>722</v>
       </c>
       <c r="D404" t="s" s="2">
-        <v>1092</v>
+        <v>723</v>
       </c>
       <c r="E404" t="s" s="2">
-        <v>1304</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="405" ht="13.65" customHeight="1">
@@ -19052,13 +19040,13 @@
         <v>677</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1087</v>
+        <v>722</v>
       </c>
       <c r="D405" t="s" s="2">
-        <v>1094</v>
+        <v>725</v>
       </c>
       <c r="E405" t="s" s="2">
-        <v>1305</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="406" ht="13.65" customHeight="1">
@@ -19072,10 +19060,10 @@
         <v>722</v>
       </c>
       <c r="D406" t="s" s="2">
-        <v>723</v>
+        <v>861</v>
       </c>
       <c r="E406" t="s" s="2">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="407" ht="13.65" customHeight="1">
@@ -19083,16 +19071,16 @@
         <v>4</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>677</v>
+        <v>727</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="D407" t="s" s="2">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E407" t="s" s="2">
-        <v>1307</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="408" ht="13.65" customHeight="1">
@@ -19100,16 +19088,16 @@
         <v>4</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>677</v>
+        <v>727</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="D408" t="s" s="2">
-        <v>863</v>
+        <v>1096</v>
       </c>
       <c r="E408" t="s" s="2">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="409" ht="13.65" customHeight="1">
@@ -19123,10 +19111,10 @@
         <v>728</v>
       </c>
       <c r="D409" t="s" s="2">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="E409" t="s" s="2">
-        <v>1309</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="410" ht="13.65" customHeight="1">
@@ -19140,10 +19128,10 @@
         <v>728</v>
       </c>
       <c r="D410" t="s" s="2">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E410" t="s" s="2">
-        <v>1310</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="411" ht="13.65" customHeight="1">
@@ -19157,10 +19145,10 @@
         <v>728</v>
       </c>
       <c r="D411" t="s" s="2">
-        <v>733</v>
+        <v>1309</v>
       </c>
       <c r="E411" t="s" s="2">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="412" ht="13.65" customHeight="1">
@@ -19171,13 +19159,13 @@
         <v>727</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="D412" t="s" s="2">
-        <v>1103</v>
+        <v>736</v>
       </c>
       <c r="E412" t="s" s="2">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="413" ht="13.65" customHeight="1">
@@ -19188,13 +19176,13 @@
         <v>727</v>
       </c>
       <c r="C413" t="s" s="2">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="D413" t="s" s="2">
-        <v>1313</v>
+        <v>1102</v>
       </c>
       <c r="E413" t="s" s="2">
-        <v>1314</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="414" ht="13.65" customHeight="1">
@@ -19208,10 +19196,10 @@
         <v>735</v>
       </c>
       <c r="D414" t="s" s="2">
-        <v>736</v>
+        <v>1104</v>
       </c>
       <c r="E414" t="s" s="2">
-        <v>1315</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="415" ht="13.65" customHeight="1">
@@ -19228,7 +19216,7 @@
         <v>1106</v>
       </c>
       <c r="E415" t="s" s="2">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="416" ht="13.65" customHeight="1">
@@ -19245,7 +19233,7 @@
         <v>1108</v>
       </c>
       <c r="E416" t="s" s="2">
-        <v>1317</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="417" ht="13.65" customHeight="1">
@@ -19256,13 +19244,13 @@
         <v>727</v>
       </c>
       <c r="C417" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D417" t="s" s="2">
         <v>1110</v>
       </c>
       <c r="E417" t="s" s="2">
-        <v>1318</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="418" ht="13.65" customHeight="1">
@@ -19273,13 +19261,13 @@
         <v>727</v>
       </c>
       <c r="C418" t="s" s="2">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D418" t="s" s="2">
-        <v>1112</v>
+        <v>873</v>
       </c>
       <c r="E418" t="s" s="2">
-        <v>1319</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="419" ht="13.65" customHeight="1">
@@ -19293,10 +19281,10 @@
         <v>738</v>
       </c>
       <c r="D419" t="s" s="2">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="E419" t="s" s="2">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="420" ht="13.65" customHeight="1">
@@ -19310,10 +19298,10 @@
         <v>738</v>
       </c>
       <c r="D420" t="s" s="2">
-        <v>877</v>
+        <v>1319</v>
       </c>
       <c r="E420" t="s" s="2">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="421" ht="13.65" customHeight="1">
@@ -19330,7 +19318,7 @@
         <v>1117</v>
       </c>
       <c r="E421" t="s" s="2">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="422" ht="13.65" customHeight="1">
@@ -19344,10 +19332,10 @@
         <v>738</v>
       </c>
       <c r="D422" t="s" s="2">
-        <v>1323</v>
+        <v>1119</v>
       </c>
       <c r="E422" t="s" s="2">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="423" ht="13.65" customHeight="1">
@@ -19358,13 +19346,13 @@
         <v>727</v>
       </c>
       <c r="C423" t="s" s="2">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="D423" t="s" s="2">
-        <v>1121</v>
+        <v>880</v>
       </c>
       <c r="E423" t="s" s="2">
-        <v>1325</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="424" ht="13.65" customHeight="1">
@@ -19375,13 +19363,13 @@
         <v>727</v>
       </c>
       <c r="C424" t="s" s="2">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="D424" t="s" s="2">
-        <v>1123</v>
+        <v>746</v>
       </c>
       <c r="E424" t="s" s="2">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="425" ht="13.65" customHeight="1">
@@ -19395,10 +19383,10 @@
         <v>743</v>
       </c>
       <c r="D425" t="s" s="2">
-        <v>884</v>
+        <v>1123</v>
       </c>
       <c r="E425" t="s" s="2">
-        <v>1327</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="426" ht="13.65" customHeight="1">
@@ -19412,10 +19400,10 @@
         <v>743</v>
       </c>
       <c r="D426" t="s" s="2">
-        <v>746</v>
+        <v>1125</v>
       </c>
       <c r="E426" t="s" s="2">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="427" ht="13.65" customHeight="1">
@@ -19429,10 +19417,10 @@
         <v>743</v>
       </c>
       <c r="D427" t="s" s="2">
-        <v>1127</v>
+        <v>885</v>
       </c>
       <c r="E427" t="s" s="2">
-        <v>1329</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="428" ht="13.65" customHeight="1">
@@ -19443,13 +19431,13 @@
         <v>727</v>
       </c>
       <c r="C428" t="s" s="2">
-        <v>743</v>
+        <v>1128</v>
       </c>
       <c r="D428" t="s" s="2">
         <v>1129</v>
       </c>
       <c r="E428" t="s" s="2">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="429" ht="13.65" customHeight="1">
@@ -19460,13 +19448,13 @@
         <v>727</v>
       </c>
       <c r="C429" t="s" s="2">
-        <v>743</v>
+        <v>1128</v>
       </c>
       <c r="D429" t="s" s="2">
-        <v>889</v>
+        <v>1131</v>
       </c>
       <c r="E429" t="s" s="2">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="430" ht="13.65" customHeight="1">
@@ -19477,13 +19465,13 @@
         <v>727</v>
       </c>
       <c r="C430" t="s" s="2">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="D430" t="s" s="2">
         <v>1133</v>
       </c>
       <c r="E430" t="s" s="2">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="431" ht="13.65" customHeight="1">
@@ -19494,13 +19482,13 @@
         <v>727</v>
       </c>
       <c r="C431" t="s" s="2">
-        <v>1132</v>
+        <v>748</v>
       </c>
       <c r="D431" t="s" s="2">
-        <v>1135</v>
+        <v>749</v>
       </c>
       <c r="E431" t="s" s="2">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="432" ht="13.65" customHeight="1">
@@ -19511,13 +19499,13 @@
         <v>727</v>
       </c>
       <c r="C432" t="s" s="2">
-        <v>1132</v>
+        <v>748</v>
       </c>
       <c r="D432" t="s" s="2">
-        <v>1137</v>
+        <v>888</v>
       </c>
       <c r="E432" t="s" s="2">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="433" ht="13.65" customHeight="1">
@@ -19531,10 +19519,10 @@
         <v>748</v>
       </c>
       <c r="D433" t="s" s="2">
-        <v>749</v>
+        <v>1137</v>
       </c>
       <c r="E433" t="s" s="2">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="434" ht="13.65" customHeight="1">
@@ -19548,10 +19536,10 @@
         <v>748</v>
       </c>
       <c r="D434" t="s" s="2">
-        <v>892</v>
+        <v>751</v>
       </c>
       <c r="E434" t="s" s="2">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="435" ht="13.65" customHeight="1">
@@ -19565,10 +19553,10 @@
         <v>748</v>
       </c>
       <c r="D435" t="s" s="2">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E435" t="s" s="2">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="436" ht="13.65" customHeight="1">
@@ -19582,10 +19570,10 @@
         <v>748</v>
       </c>
       <c r="D436" t="s" s="2">
-        <v>751</v>
+        <v>895</v>
       </c>
       <c r="E436" t="s" s="2">
-        <v>1338</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="437" ht="13.65" customHeight="1">
@@ -19599,10 +19587,10 @@
         <v>748</v>
       </c>
       <c r="D437" t="s" s="2">
-        <v>1144</v>
+        <v>1337</v>
       </c>
       <c r="E437" t="s" s="2">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="438" ht="13.65" customHeight="1">
@@ -19616,10 +19604,10 @@
         <v>748</v>
       </c>
       <c r="D438" t="s" s="2">
-        <v>899</v>
+        <v>1145</v>
       </c>
       <c r="E438" t="s" s="2">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="439" ht="13.65" customHeight="1">
@@ -19633,10 +19621,10 @@
         <v>748</v>
       </c>
       <c r="D439" t="s" s="2">
+        <v>1340</v>
+      </c>
+      <c r="E439" t="s" s="2">
         <v>1341</v>
-      </c>
-      <c r="E439" t="s" s="2">
-        <v>1342</v>
       </c>
     </row>
     <row r="440" ht="13.65" customHeight="1">
@@ -19647,13 +19635,13 @@
         <v>727</v>
       </c>
       <c r="C440" t="s" s="2">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D440" t="s" s="2">
-        <v>1149</v>
+        <v>754</v>
       </c>
       <c r="E440" t="s" s="2">
-        <v>1343</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="441" ht="13.65" customHeight="1">
@@ -19664,13 +19652,13 @@
         <v>727</v>
       </c>
       <c r="C441" t="s" s="2">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D441" t="s" s="2">
-        <v>1344</v>
+        <v>756</v>
       </c>
       <c r="E441" t="s" s="2">
-        <v>1345</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="442" ht="13.65" customHeight="1">
@@ -19684,10 +19672,10 @@
         <v>753</v>
       </c>
       <c r="D442" t="s" s="2">
-        <v>754</v>
+        <v>899</v>
       </c>
       <c r="E442" t="s" s="2">
-        <v>1346</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="443" ht="13.65" customHeight="1">
@@ -19701,10 +19689,10 @@
         <v>753</v>
       </c>
       <c r="D443" t="s" s="2">
-        <v>756</v>
+        <v>901</v>
       </c>
       <c r="E443" t="s" s="2">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="444" ht="13.65" customHeight="1">
@@ -19718,10 +19706,10 @@
         <v>753</v>
       </c>
       <c r="D444" t="s" s="2">
-        <v>903</v>
+        <v>1151</v>
       </c>
       <c r="E444" t="s" s="2">
-        <v>1348</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="445" ht="13.65" customHeight="1">
@@ -19735,10 +19723,10 @@
         <v>753</v>
       </c>
       <c r="D445" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E445" t="s" s="2">
-        <v>1349</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="446" ht="13.65" customHeight="1">
@@ -19752,10 +19740,10 @@
         <v>753</v>
       </c>
       <c r="D446" t="s" s="2">
-        <v>1155</v>
+        <v>905</v>
       </c>
       <c r="E446" t="s" s="2">
-        <v>1350</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="447" ht="13.65" customHeight="1">
@@ -19769,10 +19757,10 @@
         <v>753</v>
       </c>
       <c r="D447" t="s" s="2">
-        <v>907</v>
+        <v>1349</v>
       </c>
       <c r="E447" t="s" s="2">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="448" ht="13.65" customHeight="1">
@@ -19783,13 +19771,13 @@
         <v>727</v>
       </c>
       <c r="C448" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="D448" t="s" s="2">
-        <v>909</v>
+        <v>761</v>
       </c>
       <c r="E448" t="s" s="2">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="449" ht="13.65" customHeight="1">
@@ -19800,13 +19788,13 @@
         <v>727</v>
       </c>
       <c r="C449" t="s" s="2">
-        <v>753</v>
+        <v>760</v>
       </c>
       <c r="D449" t="s" s="2">
-        <v>1353</v>
+        <v>908</v>
       </c>
       <c r="E449" t="s" s="2">
-        <v>1354</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="450" ht="13.65" customHeight="1">
@@ -19820,10 +19808,10 @@
         <v>760</v>
       </c>
       <c r="D450" t="s" s="2">
-        <v>761</v>
+        <v>910</v>
       </c>
       <c r="E450" t="s" s="2">
-        <v>1355</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="451" ht="13.65" customHeight="1">
@@ -19837,10 +19825,10 @@
         <v>760</v>
       </c>
       <c r="D451" t="s" s="2">
-        <v>912</v>
+        <v>1158</v>
       </c>
       <c r="E451" t="s" s="2">
-        <v>1356</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="452" ht="13.65" customHeight="1">
@@ -19851,13 +19839,13 @@
         <v>727</v>
       </c>
       <c r="C452" t="s" s="2">
-        <v>760</v>
+        <v>912</v>
       </c>
       <c r="D452" t="s" s="2">
-        <v>914</v>
+        <v>1160</v>
       </c>
       <c r="E452" t="s" s="2">
-        <v>1357</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="453" ht="13.65" customHeight="1">
@@ -19868,13 +19856,13 @@
         <v>727</v>
       </c>
       <c r="C453" t="s" s="2">
-        <v>760</v>
+        <v>915</v>
       </c>
       <c r="D453" t="s" s="2">
-        <v>1162</v>
+        <v>916</v>
       </c>
       <c r="E453" t="s" s="2">
-        <v>1358</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="454" ht="13.65" customHeight="1">
@@ -19885,13 +19873,13 @@
         <v>727</v>
       </c>
       <c r="C454" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D454" t="s" s="2">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="E454" t="s" s="2">
-        <v>1359</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="455" ht="13.65" customHeight="1">
@@ -19902,13 +19890,13 @@
         <v>727</v>
       </c>
       <c r="C455" t="s" s="2">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D455" t="s" s="2">
-        <v>920</v>
+        <v>1165</v>
       </c>
       <c r="E455" t="s" s="2">
-        <v>1360</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="456" ht="13.65" customHeight="1">
@@ -19919,13 +19907,13 @@
         <v>727</v>
       </c>
       <c r="C456" t="s" s="2">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D456" t="s" s="2">
         <v>1167</v>
       </c>
       <c r="E456" t="s" s="2">
-        <v>1361</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="457" ht="13.65" customHeight="1">
@@ -19936,13 +19924,13 @@
         <v>727</v>
       </c>
       <c r="C457" t="s" s="2">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="D457" t="s" s="2">
-        <v>1169</v>
+        <v>1360</v>
       </c>
       <c r="E457" t="s" s="2">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="458" ht="13.65" customHeight="1">
@@ -19953,13 +19941,13 @@
         <v>727</v>
       </c>
       <c r="C458" t="s" s="2">
-        <v>919</v>
+        <v>763</v>
       </c>
       <c r="D458" t="s" s="2">
-        <v>1171</v>
+        <v>764</v>
       </c>
       <c r="E458" t="s" s="2">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="459" ht="13.65" customHeight="1">
@@ -19970,13 +19958,13 @@
         <v>727</v>
       </c>
       <c r="C459" t="s" s="2">
-        <v>919</v>
+        <v>763</v>
       </c>
       <c r="D459" t="s" s="2">
+        <v>1363</v>
+      </c>
+      <c r="E459" t="s" s="2">
         <v>1364</v>
-      </c>
-      <c r="E459" t="s" s="2">
-        <v>1365</v>
       </c>
     </row>
     <row r="460" ht="13.65" customHeight="1">
@@ -19990,10 +19978,10 @@
         <v>763</v>
       </c>
       <c r="D460" t="s" s="2">
-        <v>764</v>
+        <v>922</v>
       </c>
       <c r="E460" t="s" s="2">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="461" ht="13.65" customHeight="1">
@@ -20007,10 +19995,10 @@
         <v>763</v>
       </c>
       <c r="D461" t="s" s="2">
-        <v>1367</v>
+        <v>1173</v>
       </c>
       <c r="E461" t="s" s="2">
-        <v>1368</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="462" ht="13.65" customHeight="1">
@@ -20024,10 +20012,10 @@
         <v>763</v>
       </c>
       <c r="D462" t="s" s="2">
-        <v>926</v>
+        <v>1175</v>
       </c>
       <c r="E462" t="s" s="2">
-        <v>1369</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="463" ht="13.65" customHeight="1">
@@ -20041,10 +20029,10 @@
         <v>763</v>
       </c>
       <c r="D463" t="s" s="2">
-        <v>1177</v>
+        <v>1368</v>
       </c>
       <c r="E463" t="s" s="2">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="464" ht="13.65" customHeight="1">
@@ -20055,13 +20043,13 @@
         <v>727</v>
       </c>
       <c r="C464" t="s" s="2">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D464" t="s" s="2">
-        <v>1179</v>
+        <v>769</v>
       </c>
       <c r="E464" t="s" s="2">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="465" ht="13.65" customHeight="1">
@@ -20072,13 +20060,13 @@
         <v>727</v>
       </c>
       <c r="C465" t="s" s="2">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D465" t="s" s="2">
-        <v>1372</v>
+        <v>1178</v>
       </c>
       <c r="E465" t="s" s="2">
-        <v>1373</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="466" ht="13.65" customHeight="1">
@@ -20092,10 +20080,10 @@
         <v>768</v>
       </c>
       <c r="D466" t="s" s="2">
-        <v>769</v>
+        <v>927</v>
       </c>
       <c r="E466" t="s" s="2">
-        <v>1374</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="467" ht="13.65" customHeight="1">
@@ -20109,10 +20097,10 @@
         <v>768</v>
       </c>
       <c r="D467" t="s" s="2">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E467" t="s" s="2">
-        <v>1375</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="468" ht="13.65" customHeight="1">
@@ -20126,10 +20114,10 @@
         <v>768</v>
       </c>
       <c r="D468" t="s" s="2">
-        <v>931</v>
+        <v>1183</v>
       </c>
       <c r="E468" t="s" s="2">
-        <v>1376</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="469" ht="13.65" customHeight="1">
@@ -20146,7 +20134,7 @@
         <v>1185</v>
       </c>
       <c r="E469" t="s" s="2">
-        <v>1377</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="470" ht="13.65" customHeight="1">
@@ -20160,10 +20148,10 @@
         <v>768</v>
       </c>
       <c r="D470" t="s" s="2">
-        <v>1187</v>
+        <v>1376</v>
       </c>
       <c r="E470" t="s" s="2">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="471" ht="13.65" customHeight="1">
@@ -20177,7 +20165,7 @@
         <v>768</v>
       </c>
       <c r="D471" t="s" s="2">
-        <v>1189</v>
+        <v>1378</v>
       </c>
       <c r="E471" t="s" s="2">
         <v>1379</v>
@@ -20191,13 +20179,13 @@
         <v>727</v>
       </c>
       <c r="C472" t="s" s="2">
-        <v>768</v>
+        <v>931</v>
       </c>
       <c r="D472" t="s" s="2">
+        <v>932</v>
+      </c>
+      <c r="E472" t="s" s="2">
         <v>1380</v>
-      </c>
-      <c r="E472" t="s" s="2">
-        <v>1381</v>
       </c>
     </row>
     <row r="473" ht="13.65" customHeight="1">
@@ -20208,13 +20196,13 @@
         <v>727</v>
       </c>
       <c r="C473" t="s" s="2">
-        <v>768</v>
+        <v>931</v>
       </c>
       <c r="D473" t="s" s="2">
-        <v>1382</v>
+        <v>1188</v>
       </c>
       <c r="E473" t="s" s="2">
-        <v>1383</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="474" ht="13.65" customHeight="1">
@@ -20225,13 +20213,13 @@
         <v>727</v>
       </c>
       <c r="C474" t="s" s="2">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D474" t="s" s="2">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="E474" t="s" s="2">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="475" ht="13.65" customHeight="1">
@@ -20242,13 +20230,13 @@
         <v>727</v>
       </c>
       <c r="C475" t="s" s="2">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D475" t="s" s="2">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="E475" t="s" s="2">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="476" ht="13.65" customHeight="1">
@@ -20259,13 +20247,13 @@
         <v>727</v>
       </c>
       <c r="C476" t="s" s="2">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D476" t="s" s="2">
-        <v>938</v>
+        <v>1193</v>
       </c>
       <c r="E476" t="s" s="2">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="477" ht="13.65" customHeight="1">
@@ -20276,47 +20264,13 @@
         <v>727</v>
       </c>
       <c r="C477" t="s" s="2">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="D477" t="s" s="2">
-        <v>1195</v>
+        <v>1385</v>
       </c>
       <c r="E477" t="s" s="2">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="478" ht="13.65" customHeight="1">
-      <c r="A478" s="4">
-        <v>4</v>
-      </c>
-      <c r="B478" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="C478" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="D478" t="s" s="2">
-        <v>1197</v>
-      </c>
-      <c r="E478" t="s" s="2">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="479" ht="13.65" customHeight="1">
-      <c r="A479" s="4">
-        <v>4</v>
-      </c>
-      <c r="B479" t="s" s="2">
-        <v>727</v>
-      </c>
-      <c r="C479" t="s" s="2">
-        <v>935</v>
-      </c>
-      <c r="D479" t="s" s="2">
-        <v>1389</v>
-      </c>
-      <c r="E479" t="s" s="2">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
   </sheetData>
@@ -20354,10 +20308,10 @@
     </row>
     <row r="2" ht="13.65" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -20365,10 +20319,10 @@
     </row>
     <row r="3" ht="13.65" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -20383,136 +20337,136 @@
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="E5" s="3"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>1392</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>1396</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>1400</v>
-      </c>
       <c r="D6" t="s" s="2">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" t="s" s="2">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>1396</v>
+        <v>1392</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
       <c r="A8" t="s" s="2">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="E8" s="3"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" t="s" s="2">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" ht="13.65" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>1411</v>
+        <v>1407</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C11" t="s" s="2">
+        <v>1393</v>
+      </c>
+      <c r="D11" t="s" s="2">
         <v>1397</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>1401</v>
       </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" ht="13.65" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="13.65" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="E13" s="3"/>
     </row>
